--- a/Barrier_Calculator_2023/Excel Sheets/Excel_Barrier_EDL.xlsx
+++ b/Barrier_Calculator_2023/Excel Sheets/Excel_Barrier_EDL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0294cfa43591bdc4/Documents/GitHub/dft-electrocatalysis-Janik/Barrier_Calculator_2023/Excel Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="143" documentId="13_ncr:1_{CB61A4D8-D1FB-4086-BFA0-EB1DBDFD22D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E050AE5-4FC5-4F98-AE7F-8AADB73C5A09}"/>
+  <xr:revisionPtr revIDLastSave="152" documentId="13_ncr:1_{CB61A4D8-D1FB-4086-BFA0-EB1DBDFD22D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{568D1F90-820F-4A7C-AA9C-A8829AB01C39}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="37920" tabRatio="625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NH_NH2_2H2O_Rh" sheetId="63" r:id="rId1"/>
@@ -1504,24 +1504,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1529,15 +1511,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1574,6 +1547,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1712,37 +1712,37 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>3.6550529437640568E-2</c:v>
+                  <c:v>-6.8231772118330564E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1037960427165792E-2</c:v>
+                  <c:v>-5.4450349592143628E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5525391416691051E-2</c:v>
+                  <c:v>-4.0668927065956782E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0012822406216282E-2</c:v>
+                  <c:v>-2.688750453976984E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4500253395741512E-2</c:v>
+                  <c:v>-1.3106082013582911E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.9876843852667414E-3</c:v>
+                  <c:v>6.7534051260401823E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.4751153747919691E-3</c:v>
+                  <c:v>1.4456763038790954E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.0374536356828014E-3</c:v>
+                  <c:v>2.8238185564977883E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-7.550022646157571E-3</c:v>
+                  <c:v>4.2019608091164812E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.3062591656632344E-2</c:v>
+                  <c:v>5.5801030617351755E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.8575160667107113E-2</c:v>
+                  <c:v>6.9582453143538683E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1835,37 +1835,37 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-8.5057188626440683E-2</c:v>
+                  <c:v>-0.21264297156610176</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-8.5057188626440683E-2</c:v>
+                  <c:v>-0.21264297156610176</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-8.5057188626440683E-2</c:v>
+                  <c:v>-0.21264297156610176</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-8.5057188626440683E-2</c:v>
+                  <c:v>-0.21264297156610176</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8.5057188626440683E-2</c:v>
+                  <c:v>-0.21264297156610176</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-8.5057188626440683E-2</c:v>
+                  <c:v>-0.21264297156610176</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-8.5057188626440683E-2</c:v>
+                  <c:v>-0.21264297156610176</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-8.5057188626440683E-2</c:v>
+                  <c:v>-0.21264297156610176</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-8.5057188626440683E-2</c:v>
+                  <c:v>-0.21264297156610176</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-8.5057188626440683E-2</c:v>
+                  <c:v>-0.21264297156610176</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-8.5057188626440683E-2</c:v>
+                  <c:v>-0.21264297156610176</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1955,37 +1955,37 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-4.2528594313220341E-2</c:v>
+                  <c:v>-0.10632148578305088</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.2528594313220341E-2</c:v>
+                  <c:v>-0.10632148578305088</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4.2528594313220341E-2</c:v>
+                  <c:v>-0.10632148578305088</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4.2528594313220341E-2</c:v>
+                  <c:v>-0.10632148578305088</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4.2528594313220341E-2</c:v>
+                  <c:v>-0.10632148578305088</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-4.2528594313220341E-2</c:v>
+                  <c:v>-0.10632148578305088</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-4.2528594313220341E-2</c:v>
+                  <c:v>-0.10632148578305088</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-4.2528594313220341E-2</c:v>
+                  <c:v>-0.10632148578305088</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-4.2528594313220341E-2</c:v>
+                  <c:v>-0.10632148578305088</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-4.2528594313220341E-2</c:v>
+                  <c:v>-0.10632148578305088</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-4.2528594313220341E-2</c:v>
+                  <c:v>-0.10632148578305088</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2428,37 +2428,37 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.11904792320607258</c:v>
+                  <c:v>-0.11904792320607199</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.030794590762424E-2</c:v>
+                  <c:v>-9.030794590762381E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.5532103408962011E-2</c:v>
+                  <c:v>-6.5532103408961678E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.4720395710085611E-2</c:v>
+                  <c:v>-4.4720395710085396E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7872822810995193E-2</c:v>
+                  <c:v>-2.7872822810995061E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.498938471169076E-2</c:v>
+                  <c:v>-1.4989384711690689E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0700814121723012E-3</c:v>
+                  <c:v>-6.07008141217227E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1149129124398162E-3</c:v>
+                  <c:v>-1.1149129124398104E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2387921249330802E-4</c:v>
+                  <c:v>-1.2387921249330802E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0969803123327769E-3</c:v>
+                  <c:v>-3.096980312332763E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.003421621195822E-2</c:v>
+                  <c:v>-1.0034216211958172E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2812,37 +2812,37 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.74317092320607259</c:v>
+                  <c:v>0.50507507679392805</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.63389894590762419</c:v>
+                  <c:v>0.45328305409237613</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.52859110340896232</c:v>
+                  <c:v>0.39752689659103868</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.42724739571008596</c:v>
+                  <c:v>0.33780660428991494</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.32986782281099547</c:v>
+                  <c:v>0.27412217718900522</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.23645238471169105</c:v>
+                  <c:v>0.2064736152883096</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.14700108141217258</c:v>
+                  <c:v>0.134860918587828</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.1513912912440093E-2</c:v>
+                  <c:v>5.9284087087560472E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.0009120787506399E-2</c:v>
+                  <c:v>-2.0256879212493015E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-9.7568019687666957E-2</c:v>
+                  <c:v>-0.1037619803123325</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.17116278378804151</c:v>
+                  <c:v>-0.19123121621195788</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3285,37 +3285,37 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>3.6550529437640568E-2</c:v>
+                  <c:v>-6.8231772118330564E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1037960427165792E-2</c:v>
+                  <c:v>-5.4450349592143628E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5525391416691051E-2</c:v>
+                  <c:v>-4.0668927065956782E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0012822406216282E-2</c:v>
+                  <c:v>-2.688750453976984E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4500253395741512E-2</c:v>
+                  <c:v>-1.3106082013582911E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.9876843852667414E-3</c:v>
+                  <c:v>6.7534051260401823E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.4751153747919691E-3</c:v>
+                  <c:v>1.4456763038790954E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.0374536356828014E-3</c:v>
+                  <c:v>2.8238185564977883E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-7.550022646157571E-3</c:v>
+                  <c:v>4.2019608091164812E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.3062591656632344E-2</c:v>
+                  <c:v>5.5801030617351755E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.8575160667107113E-2</c:v>
+                  <c:v>6.9582453143538683E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3413,37 +3413,37 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-8.5057188626440683E-2</c:v>
+                  <c:v>-0.21264297156610176</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-8.5057188626440683E-2</c:v>
+                  <c:v>-0.21264297156610176</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-8.5057188626440683E-2</c:v>
+                  <c:v>-0.21264297156610176</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-8.5057188626440683E-2</c:v>
+                  <c:v>-0.21264297156610176</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8.5057188626440683E-2</c:v>
+                  <c:v>-0.21264297156610176</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-8.5057188626440683E-2</c:v>
+                  <c:v>-0.21264297156610176</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-8.5057188626440683E-2</c:v>
+                  <c:v>-0.21264297156610176</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-8.5057188626440683E-2</c:v>
+                  <c:v>-0.21264297156610176</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-8.5057188626440683E-2</c:v>
+                  <c:v>-0.21264297156610176</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-8.5057188626440683E-2</c:v>
+                  <c:v>-0.21264297156610176</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-8.5057188626440683E-2</c:v>
+                  <c:v>-0.21264297156610176</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3541,37 +3541,37 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-4.2528594313220341E-2</c:v>
+                  <c:v>-0.10632148578305088</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.2528594313220341E-2</c:v>
+                  <c:v>-0.10632148578305088</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4.2528594313220341E-2</c:v>
+                  <c:v>-0.10632148578305088</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4.2528594313220341E-2</c:v>
+                  <c:v>-0.10632148578305088</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4.2528594313220341E-2</c:v>
+                  <c:v>-0.10632148578305088</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-4.2528594313220341E-2</c:v>
+                  <c:v>-0.10632148578305088</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-4.2528594313220341E-2</c:v>
+                  <c:v>-0.10632148578305088</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-4.2528594313220341E-2</c:v>
+                  <c:v>-0.10632148578305088</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-4.2528594313220341E-2</c:v>
+                  <c:v>-0.10632148578305088</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-4.2528594313220341E-2</c:v>
+                  <c:v>-0.10632148578305088</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-4.2528594313220341E-2</c:v>
+                  <c:v>-0.10632148578305088</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3669,37 +3669,37 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-9.1035253502020463E-2</c:v>
+                  <c:v>-0.38719622946748322</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-9.6547822512495232E-2</c:v>
+                  <c:v>-0.37341480694129625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.10206039152296997</c:v>
+                  <c:v>-0.35963338441510939</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.10757296053344474</c:v>
+                  <c:v>-0.34585196188892248</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.11308552954391951</c:v>
+                  <c:v>-0.33207053936273556</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.11859809855439428</c:v>
+                  <c:v>-0.31828911683654859</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.12411066756486905</c:v>
+                  <c:v>-0.30450769431036168</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.12962323657534383</c:v>
+                  <c:v>-0.29072627178417476</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.13513580558581859</c:v>
+                  <c:v>-0.27694484925798779</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.14064837459629337</c:v>
+                  <c:v>-0.26316342673180088</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.14616094360676812</c:v>
+                  <c:v>-0.24938200420561396</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5154,46 +5154,46 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>-0.52035462210522432</c:v>
+                  <c:v>-1.2624670988545834</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.46908184885540438</c:v>
+                  <c:v>-1.0748038721044035</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.4138449408057987</c:v>
+                  <c:v>-0.89110478015400951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.35464389795640683</c:v>
+                  <c:v>-0.71136982300340157</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.2914787203072291</c:v>
+                  <c:v>-0.53559900065257948</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.22434940785826521</c:v>
+                  <c:v>-0.36379231310154359</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.15325596060951549</c:v>
+                  <c:v>-0.19594976035029343</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-7.8198378560979748E-2</c:v>
+                  <c:v>-3.207134239882925E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.2333828734193482E-4</c:v>
+                  <c:v>0.12784294075284913</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.3809189935449613E-2</c:v>
+                  <c:v>0.28379308910474133</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.17075917638334326</c:v>
+                  <c:v>0.43577910265684766</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.26167329763102293</c:v>
+                  <c:v>0.58380098140916803</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.35655155367848856</c:v>
+                  <c:v>0.72785872536170249</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.45539394452574011</c:v>
+                  <c:v>0.86795233451445086</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5289,46 +5289,46 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>-0.23381769953372689</c:v>
+                  <c:v>-0.91107510672777559</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.16876350375771998</c:v>
+                  <c:v>-0.73719330250378268</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9.9745173181927216E-2</c:v>
+                  <c:v>-0.56727563307957563</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.6762707806348485E-2</c:v>
+                  <c:v>-0.40132209845515465</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0183892369016214E-2</c:v>
+                  <c:v>-0.23933269863051954</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13109462734416699</c:v>
+                  <c:v>-8.1307433605670498E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.21596949711910363</c:v>
+                  <c:v>7.2753696619392683E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.30480850169382623</c:v>
+                  <c:v>0.22285069204467001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.39761164106833491</c:v>
+                  <c:v>0.36898355267016142</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.49437891524262945</c:v>
+                  <c:v>0.51115227849586675</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.59511032421671006</c:v>
+                  <c:v>0.64935686952178606</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.69980586799057665</c:v>
+                  <c:v>0.78359732574791952</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.8084655465642292</c:v>
+                  <c:v>0.913873647174267</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.92108935993766772</c:v>
+                  <c:v>1.0401858338008285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5425,46 +5425,46 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>-9.892682835206168E-2</c:v>
+                  <c:v>-0.6632086290904573</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.5603779060342724E-2</c:v>
+                  <c:v>-0.49759567838217666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1683405031162311E-2</c:v>
+                  <c:v>-0.33594686247368166</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1329347239224532</c:v>
+                  <c:v>-0.17826218136497296</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.21815017761353006</c:v>
+                  <c:v>-2.4541635056049893E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.307329766104393</c:v>
+                  <c:v>0.12521477645308698</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.40047348939504179</c:v>
+                  <c:v>0.27100705316243801</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.49758134748547656</c:v>
+                  <c:v>0.41283519507200322</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.59865334037569728</c:v>
+                  <c:v>0.55069920218178248</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.70368946806570409</c:v>
+                  <c:v>0.68459907449177559</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.81268973055549687</c:v>
+                  <c:v>0.81453481200198286</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.92565412784507561</c:v>
+                  <c:v>0.94050641471240404</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0425826599344403</c:v>
+                  <c:v>1.0625138826230394</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1634753268235909</c:v>
+                  <c:v>1.1805572157338888</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5560,46 +5560,46 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>-2.8834493383748772E-2</c:v>
+                  <c:v>-0.49448654983837925</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.9647755110081349E-2</c:v>
+                  <c:v>-0.33403279833220956</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13209413840369721</c:v>
+                  <c:v>-0.17754318162582572</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.21850465649709905</c:v>
+                  <c:v>-2.5017699719227959E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.30887930939028696</c:v>
+                  <c:v>0.12354364738758417</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.40321809708326084</c:v>
+                  <c:v>0.26814085969460999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.50152101957602069</c:v>
+                  <c:v>0.40877393720185007</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.6037880768685665</c:v>
+                  <c:v>0.54544287990930429</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.7100192689608984</c:v>
+                  <c:v>0.67814768781697243</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.82021459585301604</c:v>
+                  <c:v>0.8068883609248545</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.93437405754491987</c:v>
+                  <c:v>0.93166489923295082</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0524976540366096</c:v>
+                  <c:v>1.0524773027412611</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1745853853280854</c:v>
+                  <c:v>1.1693255714497854</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3006372514193469</c:v>
+                  <c:v>1.2822097053585237</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5696,46 +5696,46 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>-0.91254184353708201</c:v>
+                  <c:v>-1.0980699627244217</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.76985665022462713</c:v>
+                  <c:v>-0.92128715603687672</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.62618042321222545</c:v>
+                  <c:v>-0.74549538304927832</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.48151316249987763</c:v>
+                  <c:v>-0.57069464376162649</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.33585486808758325</c:v>
+                  <c:v>-0.39688493817392101</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.18920553997534229</c:v>
+                  <c:v>-0.22406626628616189</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-4.156517816315497E-2</c:v>
+                  <c:v>-5.2238628098349449E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.10706621734897914</c:v>
+                  <c:v>0.11859797638951664</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.25668864656105961</c:v>
+                  <c:v>0.28844354717743631</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.40730210947308648</c:v>
+                  <c:v>0.4572980842654093</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.55890660608505982</c:v>
+                  <c:v>0.62516158765343588</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.71150213639697979</c:v>
+                  <c:v>0.792034057341516</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.86508870040884622</c:v>
+                  <c:v>0.95791549332964965</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0196662981206592</c:v>
+                  <c:v>1.1228058956178368</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5832,46 +5832,46 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>-0.76116649855691931</c:v>
+                  <c:v>-0.9304808503554316</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.61503594961291763</c:v>
+                  <c:v>-0.7571433992994332</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.4679143669689696</c:v>
+                  <c:v>-0.58479698194338159</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.31980175062507499</c:v>
+                  <c:v>-0.41344159828727656</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.1706981005812338</c:v>
+                  <c:v>-0.24307724833111766</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.0603416837446042E-2</c:v>
+                  <c:v>-7.3703932074905332E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13048230060628807</c:v>
+                  <c:v>9.4678350481360418E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.28255905174996876</c:v>
+                  <c:v>0.2620695993376797</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.43562683659359602</c:v>
+                  <c:v>0.42846981449405269</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.58968565513716964</c:v>
+                  <c:v>0.59387899595047888</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.74473550738068972</c:v>
+                  <c:v>0.75829714370695878</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.90077639332415638</c:v>
+                  <c:v>0.92172425776349221</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0578083129675695</c:v>
+                  <c:v>1.0841603381200791</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2158312663109292</c:v>
+                  <c:v>1.2456053847767194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5968,46 +5968,46 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>-0.67959911215913016</c:v>
+                  <c:v>-0.82066956234372912</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.53140134983620058</c:v>
+                  <c:v>-0.64939932466665884</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.3822125538133242</c:v>
+                  <c:v>-0.47912012068953513</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.23203272409050169</c:v>
+                  <c:v>-0.30983195041235823</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8.0861860667732377E-2</c:v>
+                  <c:v>-0.14153481383512745</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.1300036454983284E-2</c:v>
+                  <c:v>2.5771289042156975E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.22445296727764541</c:v>
+                  <c:v>0.1920863582194946</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.37859693180025422</c:v>
+                  <c:v>0.35741039369688599</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.5337319300228095</c:v>
+                  <c:v>0.52174339547433091</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.68985796194531113</c:v>
+                  <c:v>0.68508536355182903</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.84697502756775933</c:v>
+                  <c:v>0.84743629792938091</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0050831268901539</c:v>
+                  <c:v>1.0087961986069862</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1641822599124951</c:v>
+                  <c:v>1.1691650655846451</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3242724266347827</c:v>
+                  <c:v>1.3285428988623575</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6104,46 +6104,46 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>-0.63222422663950306</c:v>
+                  <c:v>-0.74863724075316074</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.48273666451604558</c:v>
+                  <c:v>-0.57865680287661836</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.33225806869264152</c:v>
+                  <c:v>-0.40966739870002233</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.1807884391692911</c:v>
+                  <c:v>-0.24166902822337311</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2.8327775945994116E-2</c:v>
+                  <c:v>-7.4661691446670231E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.12512392097724923</c:v>
+                  <c:v>9.1354611630086513E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.27956665160043914</c:v>
+                  <c:v>0.25637988100689646</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.43500041592357563</c:v>
+                  <c:v>0.42041411668375994</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.5914252139466587</c:v>
+                  <c:v>0.58345731866067707</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.74884104566968812</c:v>
+                  <c:v>0.74550948693764763</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.90724791109266401</c:v>
+                  <c:v>0.90657062151467172</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0666458102155865</c:v>
+                  <c:v>1.0666407223917493</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2270347430384554</c:v>
+                  <c:v>1.2257197895688805</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3884147095612707</c:v>
+                  <c:v>1.3838078230460651</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6974,46 +6974,46 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>-0.72887004009481959</c:v>
+                  <c:v>-0.79266293156465017</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.56913604009481944</c:v>
+                  <c:v>-0.63292893156465002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.40940204009481951</c:v>
+                  <c:v>-0.47319493156465009</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.2496680400948188</c:v>
+                  <c:v>-0.31346093156464938</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8.9934040094818674E-2</c:v>
+                  <c:v>-0.15372693156464923</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.979995990518037E-2</c:v>
+                  <c:v>6.007068435349816E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.22953395990518044</c:v>
+                  <c:v>0.16574106843534991</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.38926795990518048</c:v>
+                  <c:v>0.32547506843534996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.54900195990518041</c:v>
+                  <c:v>0.48520906843534989</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.70873595990518035</c:v>
+                  <c:v>0.64494306843534988</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.8684699599051805</c:v>
+                  <c:v>0.80467706843534992</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0282039599051804</c:v>
+                  <c:v>0.96441106843534996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1879379599051805</c:v>
+                  <c:v>1.12414506843535</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3476719599051805</c:v>
+                  <c:v>1.2838790684353498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7146,46 +7146,46 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>-0.3810677287212601</c:v>
+                  <c:v>-0.57244640313075179</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.26159972872125997</c:v>
+                  <c:v>-0.45297840313075166</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.14213172872126006</c:v>
+                  <c:v>-0.33351040313075175</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.2663728721259491E-2</c:v>
+                  <c:v>-0.21404240313075115</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.6804271278740611E-2</c:v>
+                  <c:v>-9.4574403130751022E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.21627227127873985</c:v>
+                  <c:v>2.4893596869248219E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.33574027127873995</c:v>
+                  <c:v>0.14436159686924832</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.45520827127873997</c:v>
+                  <c:v>0.26382959686924834</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.57467627127873988</c:v>
+                  <c:v>0.38329759686924825</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.69414427127873979</c:v>
+                  <c:v>0.50276559686924827</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.81361227127873992</c:v>
+                  <c:v>0.62223359686924828</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.93308027127873994</c:v>
+                  <c:v>0.74170159686924841</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.05254827127874</c:v>
+                  <c:v>0.86116959686924832</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1720162712787401</c:v>
+                  <c:v>0.98063759686924823</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7243,8 +7243,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.8281470003940605E-2"/>
-                  <c:y val="0.40861515682336857"/>
+                  <c:x val="4.4277532983455055E-2"/>
+                  <c:y val="0.37011519592361358"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
@@ -7332,46 +7332,46 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>-9.8926828352061569E-2</c:v>
+                  <c:v>-0.9110751067277757</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.560377906034253E-2</c:v>
+                  <c:v>-0.73719330250378257</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1683405031162338E-2</c:v>
+                  <c:v>-0.56727563307957563</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13293472392245365</c:v>
+                  <c:v>-0.40132209845515371</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.21815017761353064</c:v>
+                  <c:v>-0.23933269863051845</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.30732976610439289</c:v>
+                  <c:v>-8.1307433605670248E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.40047348939504185</c:v>
+                  <c:v>7.2753696619393085E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.49758134748547667</c:v>
+                  <c:v>0.22285069204467037</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.5986533403756974</c:v>
+                  <c:v>0.36898355267016159</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.70368946806570409</c:v>
+                  <c:v>0.51115227849586697</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.81268973055549698</c:v>
+                  <c:v>0.6493568695217864</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.92565412784507572</c:v>
+                  <c:v>0.78359732574791996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0425826599344403</c:v>
+                  <c:v>0.91387364717426733</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1634753268235911</c:v>
+                  <c:v>1.0401858338008287</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11289,15 +11289,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>21120</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>193459</xdr:rowOff>
+      <xdr:colOff>83239</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>152045</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>585999</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>4058</xdr:rowOff>
+      <xdr:colOff>648118</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>169709</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12209,50 +12209,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B81A12-B379-4AF2-992A-7AE216E150C4}">
   <dimension ref="A1:AF101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E30" zoomScale="46" zoomScaleNormal="157" workbookViewId="0">
-      <selection activeCell="Z56" sqref="Z56"/>
+    <sheetView tabSelected="1" zoomScale="46" zoomScaleNormal="157" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="25.5546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.21875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="19.44140625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.21875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="8.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.5546875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="16.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.21875" style="2"/>
-    <col min="25" max="25" width="11.77734375" style="2" customWidth="1"/>
-    <col min="26" max="27" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.5703125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.28515625" style="2"/>
+    <col min="25" max="25" width="11.7109375" style="2" customWidth="1"/>
+    <col min="26" max="27" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.44140625" style="2" customWidth="1"/>
-    <col min="35" max="16384" width="9.21875" style="2"/>
+    <col min="32" max="32" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.42578125" style="2" customWidth="1"/>
+    <col min="35" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:32" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -12268,22 +12268,22 @@
       <c r="E2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="143" t="s">
+      <c r="G2" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="144"/>
-      <c r="I2" s="145" t="s">
+      <c r="H2" s="135"/>
+      <c r="I2" s="136" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="147"/>
-      <c r="M2" s="148" t="s">
+      <c r="J2" s="137"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="148"/>
-      <c r="O2" s="148"/>
-      <c r="P2" s="144"/>
+      <c r="N2" s="139"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="135"/>
       <c r="Q2" s="6" t="s">
         <v>27</v>
       </c>
@@ -12294,7 +12294,7 @@
         <v>-14.211871840000001</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="113" t="s">
         <v>18</v>
       </c>
@@ -12350,7 +12350,7 @@
         <v>-6.7686907700000001</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="114" t="s">
         <v>17</v>
       </c>
@@ -12368,26 +12368,26 @@
         <v>-0.212813</v>
       </c>
       <c r="G4" s="117">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H4" s="118">
         <v>3</v>
       </c>
       <c r="I4" s="18">
         <f>-0.5*($D$4^2-$C$4^2)/($D20*$H4^2)</f>
-        <v>-4.2528594313220341E-2</v>
+        <v>-0.10632148578305088</v>
       </c>
       <c r="J4" s="19">
         <f>2*I4</f>
-        <v>-8.5057188626440683E-2</v>
+        <v>-0.21264297156610176</v>
       </c>
       <c r="K4" s="19">
         <f>+($D$6*$D$4^2-$C$6*$C$4^2)/(2*($D20)^2*$H4^4)</f>
-        <v>-6.1718803935388988E-3</v>
+        <v>3.8574252459618132E-2</v>
       </c>
       <c r="L4" s="20">
         <f>SUM(I4:K4)</f>
-        <v>-0.13375766333319991</v>
+        <v>-0.28039020488953448</v>
       </c>
       <c r="M4" s="21">
         <f>($D$4-$C$4)/$H4</f>
@@ -12399,55 +12399,55 @@
       </c>
       <c r="O4" s="19">
         <f>-($D$6*$D$4-$C$6*$C$4)/($D20*$H4^3)</f>
-        <v>-2.7562845052373854E-2</v>
+        <v>6.8907112630934658E-2</v>
       </c>
       <c r="P4" s="20">
         <f>SUM(M4:O4)</f>
-        <v>-0.43022284505237385</v>
+        <v>-0.33375288736906539</v>
       </c>
       <c r="Q4" s="22">
         <f>0.5*($D$6-$C$6)*(1/$H4)^2</f>
-        <v>4.9551684997324708E-2</v>
+        <v>-4.9551684997324465E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="114" t="s">
         <v>69</v>
       </c>
       <c r="B5" s="119">
-        <v>-4.6519303299518446</v>
+        <v>4.6519303299518402</v>
       </c>
       <c r="C5" s="119">
         <f>B5</f>
-        <v>-4.6519303299518446</v>
+        <v>4.6519303299518402</v>
       </c>
       <c r="D5" s="119">
-        <v>-3.76</v>
+        <v>3.76</v>
       </c>
       <c r="E5" s="124">
-        <v>-4.0833513663709695</v>
+        <v>4.0833513663709704</v>
       </c>
       <c r="AF5" s="23"/>
     </row>
-    <row r="6" spans="1:32" ht="36.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:32" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="125" t="s">
         <v>68</v>
       </c>
       <c r="B6" s="24">
         <f>B5-$D$9</f>
-        <v>-1.5719303299518446</v>
+        <v>1.5719303299518401</v>
       </c>
       <c r="C6" s="24">
         <f>C5-$D$9</f>
-        <v>-1.5719303299518446</v>
+        <v>1.5719303299518401</v>
       </c>
       <c r="D6" s="24">
         <f t="shared" ref="D6:E6" si="0">D5-$D$9</f>
-        <v>-0.67999999999999972</v>
+        <v>0.67999999999999972</v>
       </c>
       <c r="E6" s="24">
         <f t="shared" si="0"/>
-        <v>-1.0033513663709694</v>
+        <v>1.0033513663709703</v>
       </c>
       <c r="G6" s="25" t="s">
         <v>11</v>
@@ -12455,18 +12455,18 @@
       <c r="H6" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="149" t="s">
+      <c r="I6" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="150"/>
-      <c r="K6" s="150"/>
-      <c r="L6" s="151"/>
-      <c r="M6" s="149" t="s">
+      <c r="J6" s="141"/>
+      <c r="K6" s="141"/>
+      <c r="L6" s="142"/>
+      <c r="M6" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="150"/>
-      <c r="O6" s="150"/>
-      <c r="P6" s="151"/>
+      <c r="N6" s="141"/>
+      <c r="O6" s="141"/>
+      <c r="P6" s="142"/>
       <c r="Q6" s="27" t="s">
         <v>27</v>
       </c>
@@ -12483,25 +12483,25 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="114" t="s">
         <v>70</v>
       </c>
       <c r="B7" s="32">
         <f>D16+B4/($D$20*$H$4)</f>
-        <v>0.53258454237288211</v>
+        <v>0.50646135593220409</v>
       </c>
       <c r="C7" s="32">
         <f>D16+C4/($D$20*$H$4)</f>
-        <v>0.53258454237288211</v>
+        <v>0.50646135593220409</v>
       </c>
       <c r="D7" s="32">
         <f>D16+D4/($D$20*$H$4)</f>
-        <v>0.14493898305084818</v>
+        <v>-0.46265254237288089</v>
       </c>
       <c r="E7" s="32">
         <f>D16+E4/($D$20*$H$4)</f>
-        <v>0.41341493333333407</v>
+        <v>0.20853733333333402</v>
       </c>
       <c r="G7" s="33"/>
       <c r="H7" s="34" t="s">
@@ -12547,7 +12547,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
       <c r="G8" s="126">
@@ -12559,19 +12559,19 @@
       </c>
       <c r="I8" s="47">
         <f t="shared" ref="I8:L21" si="2">I$4</f>
-        <v>-4.2528594313220341E-2</v>
+        <v>-0.10632148578305088</v>
       </c>
       <c r="J8" s="48">
         <f t="shared" si="2"/>
-        <v>-8.5057188626440683E-2</v>
+        <v>-0.21264297156610176</v>
       </c>
       <c r="K8" s="48">
         <f t="shared" si="2"/>
-        <v>-6.1718803935388988E-3</v>
+        <v>3.8574252459618132E-2</v>
       </c>
       <c r="L8" s="49">
         <f t="shared" si="2"/>
-        <v>-0.13375766333319991</v>
+        <v>-0.28039020488953448</v>
       </c>
       <c r="M8" s="47">
         <f t="shared" ref="M8:P21" si="3">M$4*$H8</f>
@@ -12583,42 +12583,42 @@
       </c>
       <c r="O8" s="48">
         <f t="shared" si="3"/>
-        <v>5.9260116862603809E-2</v>
+        <v>-0.14815029215650957</v>
       </c>
       <c r="P8" s="49">
         <f t="shared" si="3"/>
-        <v>0.92497911686260414</v>
+        <v>0.71756870784349081</v>
       </c>
       <c r="Q8" s="50">
         <f t="shared" ref="Q8:Q21" si="4">Q$4*$H8^2</f>
-        <v>0.22905266390013362</v>
+        <v>-0.22905266390013249</v>
       </c>
       <c r="R8" s="51">
         <f>I8+M8</f>
-        <v>0.39033090568677986</v>
+        <v>0.32653801421694928</v>
       </c>
       <c r="S8" s="52">
         <f t="shared" ref="S8:S21" si="5">J8+N8</f>
-        <v>0.34780231137355949</v>
+        <v>0.22021652843389841</v>
       </c>
       <c r="T8" s="53">
         <f>K8+O8+Q8</f>
-        <v>0.28214090036919853</v>
+        <v>-0.33862870359702391</v>
       </c>
       <c r="U8" s="54">
         <f>K8+O8</f>
-        <v>5.3088236469064909E-2</v>
+        <v>-0.10957603969689145</v>
       </c>
       <c r="V8" s="23"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A9" s="152" t="s">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A9" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="153"/>
-      <c r="C9" s="154"/>
+      <c r="B9" s="144"/>
+      <c r="C9" s="145"/>
       <c r="D9" s="120">
-        <v>-3.08</v>
+        <v>3.08</v>
       </c>
       <c r="G9" s="127">
         <v>-1.4</v>
@@ -12629,19 +12629,19 @@
       </c>
       <c r="I9" s="56">
         <f t="shared" si="2"/>
-        <v>-4.2528594313220341E-2</v>
+        <v>-0.10632148578305088</v>
       </c>
       <c r="J9" s="57">
         <f t="shared" si="2"/>
-        <v>-8.5057188626440683E-2</v>
+        <v>-0.21264297156610176</v>
       </c>
       <c r="K9" s="57">
         <f t="shared" si="2"/>
-        <v>-6.1718803935388988E-3</v>
+        <v>3.8574252459618132E-2</v>
       </c>
       <c r="L9" s="58">
         <f t="shared" si="2"/>
-        <v>-0.13375766333319991</v>
+        <v>-0.28039020488953448</v>
       </c>
       <c r="M9" s="56">
         <f t="shared" si="3"/>
@@ -12653,39 +12653,39 @@
       </c>
       <c r="O9" s="57">
         <f t="shared" si="3"/>
-        <v>5.3747547852129034E-2</v>
+        <v>-0.13436886963032263</v>
       </c>
       <c r="P9" s="58">
         <f t="shared" si="3"/>
-        <v>0.83893454785212929</v>
+        <v>0.65081813036967773</v>
       </c>
       <c r="Q9" s="59">
         <f t="shared" si="4"/>
-        <v>0.18842028220232732</v>
+        <v>-0.1884202822023264</v>
       </c>
       <c r="R9" s="60">
         <f t="shared" ref="R9:R21" si="6">I9+M9</f>
-        <v>0.35006490568677984</v>
+        <v>0.28627201421694926</v>
       </c>
       <c r="S9" s="61">
         <f t="shared" si="5"/>
-        <v>0.30753631137355947</v>
+        <v>0.17995052843389839</v>
       </c>
       <c r="T9" s="62">
-        <f t="shared" ref="T8:T21" si="7">K9+O9+Q9</f>
-        <v>0.23599594966091744</v>
+        <f t="shared" ref="T9:T21" si="7">K9+O9+Q9</f>
+        <v>-0.2842148993730309</v>
       </c>
       <c r="U9" s="63">
         <f t="shared" ref="U9:U21" si="8">K9+O9</f>
-        <v>4.7575667458590133E-2</v>
+        <v>-9.5794617170704505E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A10" s="137" t="s">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A10" s="131" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="138"/>
-      <c r="C10" s="139"/>
+      <c r="B10" s="132"/>
+      <c r="C10" s="133"/>
       <c r="D10" s="119">
         <f>5.15</f>
         <v>5.15</v>
@@ -12699,19 +12699,19 @@
       </c>
       <c r="I10" s="56">
         <f t="shared" si="2"/>
-        <v>-4.2528594313220341E-2</v>
+        <v>-0.10632148578305088</v>
       </c>
       <c r="J10" s="57">
         <f t="shared" si="2"/>
-        <v>-8.5057188626440683E-2</v>
+        <v>-0.21264297156610176</v>
       </c>
       <c r="K10" s="57">
         <f t="shared" si="2"/>
-        <v>-6.1718803935388988E-3</v>
+        <v>3.8574252459618132E-2</v>
       </c>
       <c r="L10" s="58">
         <f t="shared" si="2"/>
-        <v>-0.13375766333319991</v>
+        <v>-0.28039020488953448</v>
       </c>
       <c r="M10" s="56">
         <f t="shared" si="3"/>
@@ -12723,39 +12723,39 @@
       </c>
       <c r="O10" s="57">
         <f t="shared" si="3"/>
-        <v>4.8234978841654265E-2</v>
+        <v>-0.1205874471041357</v>
       </c>
       <c r="P10" s="58">
         <f t="shared" si="3"/>
-        <v>0.75288997884165454</v>
+        <v>0.58406755289586465</v>
       </c>
       <c r="Q10" s="59">
         <f t="shared" si="4"/>
-        <v>0.15175203530430703</v>
+        <v>-0.15175203530430628</v>
       </c>
       <c r="R10" s="60">
         <f t="shared" si="6"/>
-        <v>0.30979890568677981</v>
+        <v>0.24600601421694923</v>
       </c>
       <c r="S10" s="61">
         <f t="shared" si="5"/>
-        <v>0.26727031137355944</v>
+        <v>0.13968452843389836</v>
       </c>
       <c r="T10" s="62">
         <f t="shared" si="7"/>
-        <v>0.1938151337524224</v>
+        <v>-0.23376522994882384</v>
       </c>
       <c r="U10" s="63">
         <f t="shared" si="8"/>
-        <v>4.2063098448115364E-2</v>
+        <v>-8.2013194644517562E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A11" s="137" t="s">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A11" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="138"/>
-      <c r="C11" s="139"/>
+      <c r="B11" s="132"/>
+      <c r="C11" s="133"/>
       <c r="D11" s="119">
         <v>1000</v>
       </c>
@@ -12768,19 +12768,19 @@
       </c>
       <c r="I11" s="56">
         <f t="shared" si="2"/>
-        <v>-4.2528594313220341E-2</v>
+        <v>-0.10632148578305088</v>
       </c>
       <c r="J11" s="57">
         <f t="shared" si="2"/>
-        <v>-8.5057188626440683E-2</v>
+        <v>-0.21264297156610176</v>
       </c>
       <c r="K11" s="57">
         <f t="shared" si="2"/>
-        <v>-6.1718803935388988E-3</v>
+        <v>3.8574252459618132E-2</v>
       </c>
       <c r="L11" s="58">
         <f t="shared" si="2"/>
-        <v>-0.13375766333319991</v>
+        <v>-0.28039020488953448</v>
       </c>
       <c r="M11" s="56">
         <f t="shared" si="3"/>
@@ -12792,39 +12792,39 @@
       </c>
       <c r="O11" s="57">
         <f t="shared" si="3"/>
-        <v>4.2722409831179468E-2</v>
+        <v>-0.1068060245779487</v>
       </c>
       <c r="P11" s="58">
         <f t="shared" si="3"/>
-        <v>0.66684540983117935</v>
+        <v>0.51731697542205124</v>
       </c>
       <c r="Q11" s="59">
         <f t="shared" si="4"/>
-        <v>0.11904792320607258</v>
+        <v>-0.11904792320607199</v>
       </c>
       <c r="R11" s="60">
         <f t="shared" si="6"/>
-        <v>0.26953290568677968</v>
+        <v>0.2057400142169491</v>
       </c>
       <c r="S11" s="61">
         <f t="shared" si="5"/>
-        <v>0.22700431137355931</v>
+        <v>9.9418528433898229E-2</v>
       </c>
       <c r="T11" s="62">
         <f t="shared" si="7"/>
-        <v>0.15559845264371314</v>
+        <v>-0.18727969532440256</v>
       </c>
       <c r="U11" s="63">
         <f t="shared" si="8"/>
-        <v>3.6550529437640568E-2</v>
+        <v>-6.8231772118330564E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A12" s="137" t="s">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A12" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="138"/>
-      <c r="C12" s="139"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="133"/>
       <c r="D12" s="119">
         <v>17.75</v>
       </c>
@@ -12837,19 +12837,19 @@
       </c>
       <c r="I12" s="56">
         <f t="shared" si="2"/>
-        <v>-4.2528594313220341E-2</v>
+        <v>-0.10632148578305088</v>
       </c>
       <c r="J12" s="57">
         <f t="shared" si="2"/>
-        <v>-8.5057188626440683E-2</v>
+        <v>-0.21264297156610176</v>
       </c>
       <c r="K12" s="57">
         <f t="shared" si="2"/>
-        <v>-6.1718803935388988E-3</v>
+        <v>3.8574252459618132E-2</v>
       </c>
       <c r="L12" s="58">
         <f t="shared" si="2"/>
-        <v>-0.13375766333319991</v>
+        <v>-0.28039020488953448</v>
       </c>
       <c r="M12" s="56">
         <f t="shared" si="3"/>
@@ -12861,39 +12861,39 @@
       </c>
       <c r="O12" s="57">
         <f t="shared" si="3"/>
-        <v>3.7209840820704693E-2</v>
+        <v>-9.3024602051761759E-2</v>
       </c>
       <c r="P12" s="58">
         <f t="shared" si="3"/>
-        <v>0.58080084082070449</v>
+        <v>0.45056639794823816</v>
       </c>
       <c r="Q12" s="59">
         <f t="shared" si="4"/>
-        <v>9.030794590762424E-2</v>
+        <v>-9.0307945907623796E-2</v>
       </c>
       <c r="R12" s="60">
         <f t="shared" si="6"/>
-        <v>0.22926690568677963</v>
+        <v>0.16547401421694907</v>
       </c>
       <c r="S12" s="61">
         <f t="shared" si="5"/>
-        <v>0.18673831137355928</v>
+        <v>5.9152528433898205E-2</v>
       </c>
       <c r="T12" s="62">
         <f t="shared" si="7"/>
-        <v>0.12134590633479003</v>
+        <v>-0.14475829549976743</v>
       </c>
       <c r="U12" s="63">
         <f t="shared" si="8"/>
-        <v>3.1037960427165792E-2</v>
+        <v>-5.4450349592143628E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A13" s="137" t="s">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A13" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="138"/>
-      <c r="C13" s="139"/>
+      <c r="B13" s="132"/>
+      <c r="C13" s="133"/>
       <c r="D13" s="119">
         <v>4.5999999999999996</v>
       </c>
@@ -12906,19 +12906,19 @@
       </c>
       <c r="I13" s="56">
         <f t="shared" si="2"/>
-        <v>-4.2528594313220341E-2</v>
+        <v>-0.10632148578305088</v>
       </c>
       <c r="J13" s="57">
         <f t="shared" si="2"/>
-        <v>-8.5057188626440683E-2</v>
+        <v>-0.21264297156610176</v>
       </c>
       <c r="K13" s="57">
         <f t="shared" si="2"/>
-        <v>-6.1718803935388988E-3</v>
+        <v>3.8574252459618132E-2</v>
       </c>
       <c r="L13" s="58">
         <f t="shared" si="2"/>
-        <v>-0.13375766333319991</v>
+        <v>-0.28039020488953448</v>
       </c>
       <c r="M13" s="56">
         <f t="shared" si="3"/>
@@ -12930,39 +12930,39 @@
       </c>
       <c r="O13" s="57">
         <f t="shared" si="3"/>
-        <v>3.1697271810229952E-2</v>
+        <v>-7.9243179525574914E-2</v>
       </c>
       <c r="P13" s="58">
         <f t="shared" si="3"/>
-        <v>0.49475627181023024</v>
+        <v>0.38381582047442547</v>
       </c>
       <c r="Q13" s="59">
         <f t="shared" si="4"/>
-        <v>6.5532103408962011E-2</v>
+        <v>-6.5532103408961692E-2</v>
       </c>
       <c r="R13" s="60">
         <f t="shared" si="6"/>
-        <v>0.18900090568677982</v>
+        <v>0.12520801421694927</v>
       </c>
       <c r="S13" s="61">
         <f t="shared" si="5"/>
-        <v>0.14647231137355948</v>
+        <v>1.8886528433898403E-2</v>
       </c>
       <c r="T13" s="62">
         <f t="shared" si="7"/>
-        <v>9.1057494825653063E-2</v>
+        <v>-0.10620103047491847</v>
       </c>
       <c r="U13" s="63">
         <f t="shared" si="8"/>
-        <v>2.5525391416691051E-2</v>
+        <v>-4.0668927065956782E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A14" s="137" t="s">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A14" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="138"/>
-      <c r="C14" s="139"/>
+      <c r="B14" s="132"/>
+      <c r="C14" s="133"/>
       <c r="D14" s="121">
         <v>5.5312499999999997E-3</v>
       </c>
@@ -12975,19 +12975,19 @@
       </c>
       <c r="I14" s="56">
         <f t="shared" si="2"/>
-        <v>-4.2528594313220341E-2</v>
+        <v>-0.10632148578305088</v>
       </c>
       <c r="J14" s="57">
         <f t="shared" si="2"/>
-        <v>-8.5057188626440683E-2</v>
+        <v>-0.21264297156610176</v>
       </c>
       <c r="K14" s="57">
         <f t="shared" si="2"/>
-        <v>-6.1718803935388988E-3</v>
+        <v>3.8574252459618132E-2</v>
       </c>
       <c r="L14" s="58">
         <f t="shared" si="2"/>
-        <v>-0.13375766333319991</v>
+        <v>-0.28039020488953448</v>
       </c>
       <c r="M14" s="56">
         <f t="shared" si="3"/>
@@ -12999,39 +12999,39 @@
       </c>
       <c r="O14" s="57">
         <f t="shared" si="3"/>
-        <v>2.6184702799755183E-2</v>
+        <v>-6.5461756999387971E-2</v>
       </c>
       <c r="P14" s="58">
         <f t="shared" si="3"/>
-        <v>0.40871170279975549</v>
+        <v>0.31706524300061234</v>
       </c>
       <c r="Q14" s="59">
         <f t="shared" si="4"/>
-        <v>4.4720395710085618E-2</v>
+        <v>-4.4720395710085396E-2</v>
       </c>
       <c r="R14" s="60">
         <f t="shared" si="6"/>
-        <v>0.14873490568677983</v>
+        <v>8.4942014216949288E-2</v>
       </c>
       <c r="S14" s="61">
         <f t="shared" si="5"/>
-        <v>0.10620631137355949</v>
+        <v>-2.1379471566101593E-2</v>
       </c>
       <c r="T14" s="62">
         <f t="shared" si="7"/>
-        <v>6.4733218116301894E-2</v>
+        <v>-7.1607900249855236E-2</v>
       </c>
       <c r="U14" s="63">
         <f t="shared" si="8"/>
-        <v>2.0012822406216282E-2</v>
+        <v>-2.688750453976984E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A15" s="137" t="s">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A15" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="138"/>
-      <c r="C15" s="139"/>
+      <c r="B15" s="132"/>
+      <c r="C15" s="133"/>
       <c r="D15" s="115">
         <f>D11/D12</f>
         <v>56.338028169014088</v>
@@ -13045,19 +13045,19 @@
       </c>
       <c r="I15" s="56">
         <f t="shared" si="2"/>
-        <v>-4.2528594313220341E-2</v>
+        <v>-0.10632148578305088</v>
       </c>
       <c r="J15" s="57">
         <f t="shared" si="2"/>
-        <v>-8.5057188626440683E-2</v>
+        <v>-0.21264297156610176</v>
       </c>
       <c r="K15" s="57">
         <f t="shared" si="2"/>
-        <v>-6.1718803935388988E-3</v>
+        <v>3.8574252459618132E-2</v>
       </c>
       <c r="L15" s="58">
         <f t="shared" si="2"/>
-        <v>-0.13375766333319991</v>
+        <v>-0.28039020488953448</v>
       </c>
       <c r="M15" s="56">
         <f t="shared" si="3"/>
@@ -13069,39 +13069,39 @@
       </c>
       <c r="O15" s="57">
         <f t="shared" si="3"/>
-        <v>2.0672133789280411E-2</v>
+        <v>-5.1680334473201042E-2</v>
       </c>
       <c r="P15" s="58">
         <f t="shared" si="3"/>
-        <v>0.32266713378928069</v>
+        <v>0.25031466552679926</v>
       </c>
       <c r="Q15" s="59">
         <f t="shared" si="4"/>
-        <v>2.7872822810995197E-2</v>
+        <v>-2.7872822810995061E-2</v>
       </c>
       <c r="R15" s="60">
         <f t="shared" si="6"/>
-        <v>0.1084689056867798</v>
+        <v>4.4676014216949264E-2</v>
       </c>
       <c r="S15" s="61">
         <f t="shared" si="5"/>
-        <v>6.5940311373559463E-2</v>
+        <v>-6.1645471566101617E-2</v>
       </c>
       <c r="T15" s="62">
         <f t="shared" si="7"/>
-        <v>4.2373076206736707E-2</v>
+        <v>-4.0978904824577972E-2</v>
       </c>
       <c r="U15" s="63">
         <f t="shared" si="8"/>
-        <v>1.4500253395741512E-2</v>
+        <v>-1.3106082013582911E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A16" s="137" t="s">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A16" s="131" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="138"/>
-      <c r="C16" s="139"/>
+      <c r="B16" s="132"/>
+      <c r="C16" s="133"/>
       <c r="D16" s="115">
         <f>D10-D13</f>
         <v>0.55000000000000071</v>
@@ -13115,19 +13115,19 @@
       </c>
       <c r="I16" s="56">
         <f t="shared" si="2"/>
-        <v>-4.2528594313220341E-2</v>
+        <v>-0.10632148578305088</v>
       </c>
       <c r="J16" s="57">
         <f t="shared" si="2"/>
-        <v>-8.5057188626440683E-2</v>
+        <v>-0.21264297156610176</v>
       </c>
       <c r="K16" s="57">
         <f t="shared" si="2"/>
-        <v>-6.1718803935388988E-3</v>
+        <v>3.8574252459618132E-2</v>
       </c>
       <c r="L16" s="58">
         <f t="shared" si="2"/>
-        <v>-0.13375766333319991</v>
+        <v>-0.28039020488953448</v>
       </c>
       <c r="M16" s="56">
         <f t="shared" si="3"/>
@@ -13139,39 +13139,39 @@
       </c>
       <c r="O16" s="57">
         <f t="shared" si="3"/>
-        <v>1.515956477880564E-2</v>
+        <v>-3.7898911947014113E-2</v>
       </c>
       <c r="P16" s="58">
         <f t="shared" si="3"/>
-        <v>0.23662256477880592</v>
+        <v>0.18356408805298621</v>
       </c>
       <c r="Q16" s="59">
         <f t="shared" si="4"/>
-        <v>1.4989384711690762E-2</v>
+        <v>-1.4989384711690689E-2</v>
       </c>
       <c r="R16" s="60">
         <f t="shared" si="6"/>
-        <v>6.8202905686779808E-2</v>
+        <v>4.4100142169492679E-3</v>
       </c>
       <c r="S16" s="61">
         <f t="shared" si="5"/>
-        <v>2.5674311373559466E-2</v>
+        <v>-0.10191147156610161</v>
       </c>
       <c r="T16" s="62">
         <f t="shared" si="7"/>
-        <v>2.3977069096957501E-2</v>
+        <v>-1.431404419908667E-2</v>
       </c>
       <c r="U16" s="63">
         <f t="shared" si="8"/>
-        <v>8.9876843852667414E-3</v>
+        <v>6.7534051260401823E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A17" s="137" t="s">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="138"/>
-      <c r="C17" s="139"/>
+      <c r="B17" s="132"/>
+      <c r="C17" s="133"/>
       <c r="D17" s="119">
         <v>-288.87596554999999</v>
       </c>
@@ -13184,19 +13184,19 @@
       </c>
       <c r="I17" s="56">
         <f t="shared" si="2"/>
-        <v>-4.2528594313220341E-2</v>
+        <v>-0.10632148578305088</v>
       </c>
       <c r="J17" s="57">
         <f t="shared" si="2"/>
-        <v>-8.5057188626440683E-2</v>
+        <v>-0.21264297156610176</v>
       </c>
       <c r="K17" s="57">
         <f t="shared" si="2"/>
-        <v>-6.1718803935388988E-3</v>
+        <v>3.8574252459618132E-2</v>
       </c>
       <c r="L17" s="58">
         <f t="shared" si="2"/>
-        <v>-0.13375766333319991</v>
+        <v>-0.28039020488953448</v>
       </c>
       <c r="M17" s="56">
         <f t="shared" si="3"/>
@@ -13208,39 +13208,39 @@
       </c>
       <c r="O17" s="57">
         <f t="shared" si="3"/>
-        <v>9.6469957683308679E-3</v>
+        <v>-2.4117489420827178E-2</v>
       </c>
       <c r="P17" s="58">
         <f t="shared" si="3"/>
-        <v>0.15057799576833114</v>
+        <v>0.11681351057917312</v>
       </c>
       <c r="Q17" s="59">
         <f t="shared" si="4"/>
-        <v>6.0700814121723004E-3</v>
+        <v>-6.0700814121722709E-3</v>
       </c>
       <c r="R17" s="60">
         <f t="shared" si="6"/>
-        <v>2.7936905686779798E-2</v>
+        <v>-3.5855985783050742E-2</v>
       </c>
       <c r="S17" s="61">
         <f t="shared" si="5"/>
-        <v>-1.4591688626440544E-2</v>
+        <v>-0.14217747156610161</v>
       </c>
       <c r="T17" s="62">
         <f t="shared" si="7"/>
-        <v>9.5451967869642704E-3</v>
+        <v>8.386681626618684E-3</v>
       </c>
       <c r="U17" s="63">
         <f t="shared" si="8"/>
-        <v>3.4751153747919691E-3</v>
+        <v>1.4456763038790954E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A18" s="137" t="s">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A18" s="131" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="138"/>
-      <c r="C18" s="139"/>
+      <c r="B18" s="132"/>
+      <c r="C18" s="133"/>
       <c r="D18" s="119">
         <v>-0.04</v>
       </c>
@@ -13253,19 +13253,19 @@
       </c>
       <c r="I18" s="56">
         <f t="shared" si="2"/>
-        <v>-4.2528594313220341E-2</v>
+        <v>-0.10632148578305088</v>
       </c>
       <c r="J18" s="57">
         <f t="shared" si="2"/>
-        <v>-8.5057188626440683E-2</v>
+        <v>-0.21264297156610176</v>
       </c>
       <c r="K18" s="57">
         <f t="shared" si="2"/>
-        <v>-6.1718803935388988E-3</v>
+        <v>3.8574252459618132E-2</v>
       </c>
       <c r="L18" s="58">
         <f t="shared" si="2"/>
-        <v>-0.13375766333319991</v>
+        <v>-0.28039020488953448</v>
       </c>
       <c r="M18" s="56">
         <f t="shared" si="3"/>
@@ -13277,39 +13277,39 @@
       </c>
       <c r="O18" s="57">
         <f t="shared" si="3"/>
-        <v>4.1344267578560974E-3</v>
+        <v>-1.0336066894640247E-2</v>
       </c>
       <c r="P18" s="58">
         <f t="shared" si="3"/>
-        <v>6.453342675785638E-2</v>
+        <v>5.0062933105360037E-2</v>
       </c>
       <c r="Q18" s="59">
         <f t="shared" si="4"/>
-        <v>1.1149129124398162E-3</v>
+        <v>-1.1149129124398108E-3</v>
       </c>
       <c r="R18" s="60">
         <f t="shared" si="6"/>
-        <v>-1.2329094313220202E-2</v>
+        <v>-7.6121985783050738E-2</v>
       </c>
       <c r="S18" s="61">
         <f t="shared" si="5"/>
-        <v>-5.485768862644054E-2</v>
+        <v>-0.18244347156610163</v>
       </c>
       <c r="T18" s="62">
         <f t="shared" si="7"/>
-        <v>-9.2254072324298515E-4</v>
+        <v>2.7123272652538073E-2</v>
       </c>
       <c r="U18" s="63">
         <f t="shared" si="8"/>
-        <v>-2.0374536356828014E-3</v>
+        <v>2.8238185564977883E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A19" s="137" t="s">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A19" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="138"/>
-      <c r="C19" s="139"/>
+      <c r="B19" s="132"/>
+      <c r="C19" s="133"/>
       <c r="D19" s="115">
         <f>D3-C3+D16+D18</f>
         <v>1.0307990542184013</v>
@@ -13323,19 +13323,19 @@
       </c>
       <c r="I19" s="56">
         <f t="shared" si="2"/>
-        <v>-4.2528594313220341E-2</v>
+        <v>-0.10632148578305088</v>
       </c>
       <c r="J19" s="57">
         <f t="shared" si="2"/>
-        <v>-8.5057188626440683E-2</v>
+        <v>-0.21264297156610176</v>
       </c>
       <c r="K19" s="57">
         <f t="shared" si="2"/>
-        <v>-6.1718803935388988E-3</v>
+        <v>3.8574252459618132E-2</v>
       </c>
       <c r="L19" s="58">
         <f t="shared" si="2"/>
-        <v>-0.13375766333319991</v>
+        <v>-0.28039020488953448</v>
       </c>
       <c r="M19" s="56">
         <f t="shared" si="3"/>
@@ -13347,42 +13347,42 @@
       </c>
       <c r="O19" s="57">
         <f t="shared" si="3"/>
-        <v>-1.3781422526186725E-3</v>
+        <v>3.4453556315466823E-3</v>
       </c>
       <c r="P19" s="58">
         <f t="shared" si="3"/>
-        <v>-2.1511142252618378E-2</v>
+        <v>-1.6687644368453027E-2</v>
       </c>
       <c r="Q19" s="59">
         <f t="shared" si="4"/>
-        <v>1.2387921249330813E-4</v>
+        <v>-1.2387921249330753E-4</v>
       </c>
       <c r="R19" s="60">
         <f t="shared" si="6"/>
-        <v>-5.2595094313220195E-2</v>
+        <v>-0.11638798578305073</v>
       </c>
       <c r="S19" s="61">
         <f t="shared" si="5"/>
-        <v>-9.5123688626440536E-2</v>
+        <v>-0.2227094715661016</v>
       </c>
       <c r="T19" s="62">
         <f t="shared" si="7"/>
-        <v>-7.426143433664263E-3</v>
+        <v>4.1895728878671504E-2</v>
       </c>
       <c r="U19" s="63">
         <f t="shared" si="8"/>
-        <v>-7.550022646157571E-3</v>
+        <v>4.2019608091164812E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A20" s="137" t="s">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A20" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="138"/>
-      <c r="C20" s="139"/>
+      <c r="B20" s="132"/>
+      <c r="C20" s="133"/>
       <c r="D20" s="115">
         <f>G4*$D$14*$D$15/H4</f>
-        <v>0.51936619718309862</v>
+        <v>0.20774647887323941</v>
       </c>
       <c r="G20" s="127">
         <v>0.8</v>
@@ -13393,19 +13393,19 @@
       </c>
       <c r="I20" s="56">
         <f t="shared" si="2"/>
-        <v>-4.2528594313220341E-2</v>
+        <v>-0.10632148578305088</v>
       </c>
       <c r="J20" s="57">
         <f t="shared" si="2"/>
-        <v>-8.5057188626440683E-2</v>
+        <v>-0.21264297156610176</v>
       </c>
       <c r="K20" s="57">
         <f t="shared" si="2"/>
-        <v>-6.1718803935388988E-3</v>
+        <v>3.8574252459618132E-2</v>
       </c>
       <c r="L20" s="58">
         <f t="shared" si="2"/>
-        <v>-0.13375766333319991</v>
+        <v>-0.28039020488953448</v>
       </c>
       <c r="M20" s="56">
         <f t="shared" si="3"/>
@@ -13417,39 +13417,39 @@
       </c>
       <c r="O20" s="57">
         <f t="shared" si="3"/>
-        <v>-6.8907112630934454E-3</v>
+        <v>1.7226778157733619E-2</v>
       </c>
       <c r="P20" s="58">
         <f t="shared" si="3"/>
-        <v>-0.10755571126309317</v>
+        <v>-8.3438221842266125E-2</v>
       </c>
       <c r="Q20" s="59">
         <f t="shared" si="4"/>
-        <v>3.0969803123327777E-3</v>
+        <v>-3.0969803123327626E-3</v>
       </c>
       <c r="R20" s="60">
         <f t="shared" si="6"/>
-        <v>-9.2861094313220205E-2</v>
+        <v>-0.15665398578305076</v>
       </c>
       <c r="S20" s="61">
         <f t="shared" si="5"/>
-        <v>-0.13538968862644055</v>
+        <v>-0.26297547156610163</v>
       </c>
       <c r="T20" s="62">
         <f t="shared" si="7"/>
-        <v>-9.9656113442995672E-3</v>
+        <v>5.2704050305018992E-2</v>
       </c>
       <c r="U20" s="63">
         <f t="shared" si="8"/>
-        <v>-1.3062591656632344E-2</v>
+        <v>5.5801030617351755E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="140" t="s">
+    <row r="21" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="152" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="141"/>
-      <c r="C21" s="142"/>
+      <c r="B21" s="153"/>
+      <c r="C21" s="154"/>
       <c r="D21" s="116">
         <f>C3-B3</f>
         <v>0.3174193132336427</v>
@@ -13463,19 +13463,19 @@
       </c>
       <c r="I21" s="65">
         <f t="shared" si="2"/>
-        <v>-4.2528594313220341E-2</v>
+        <v>-0.10632148578305088</v>
       </c>
       <c r="J21" s="66">
         <f t="shared" si="2"/>
-        <v>-8.5057188626440683E-2</v>
+        <v>-0.21264297156610176</v>
       </c>
       <c r="K21" s="66">
         <f t="shared" si="2"/>
-        <v>-6.1718803935388988E-3</v>
+        <v>3.8574252459618132E-2</v>
       </c>
       <c r="L21" s="67">
         <f t="shared" si="2"/>
-        <v>-0.13375766333319991</v>
+        <v>-0.28039020488953448</v>
       </c>
       <c r="M21" s="65">
         <f t="shared" si="3"/>
@@ -13487,52 +13487,52 @@
       </c>
       <c r="O21" s="66">
         <f t="shared" si="3"/>
-        <v>-1.2403280273568214E-2</v>
+        <v>3.1008200683920548E-2</v>
       </c>
       <c r="P21" s="67">
         <f t="shared" si="3"/>
-        <v>-0.19360028027356793</v>
+        <v>-0.15018879931607917</v>
       </c>
       <c r="Q21" s="68">
         <f t="shared" si="4"/>
-        <v>1.003421621195822E-2</v>
+        <v>-1.0034216211958172E-2</v>
       </c>
       <c r="R21" s="69">
         <f t="shared" si="6"/>
-        <v>-0.1331270943132202</v>
+        <v>-0.19691998578305075</v>
       </c>
       <c r="S21" s="70">
         <f t="shared" si="5"/>
-        <v>-0.17565568862644054</v>
+        <v>-0.30324147156610159</v>
       </c>
       <c r="T21" s="71">
         <f t="shared" si="7"/>
-        <v>-8.5409444551488925E-3</v>
+        <v>5.9548236931580512E-2</v>
       </c>
       <c r="U21" s="24">
         <f t="shared" si="8"/>
-        <v>-1.8575160667107113E-2</v>
+        <v>6.9582453143538683E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="23" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N23" s="155" t="s">
         <v>11</v>
       </c>
-      <c r="O23" s="134" t="s">
+      <c r="O23" s="149" t="s">
         <v>53</v>
       </c>
-      <c r="P23" s="135"/>
-      <c r="Q23" s="135"/>
-      <c r="R23" s="136"/>
-      <c r="S23" s="134" t="s">
+      <c r="P23" s="150"/>
+      <c r="Q23" s="150"/>
+      <c r="R23" s="151"/>
+      <c r="S23" s="149" t="s">
         <v>54</v>
       </c>
-      <c r="T23" s="135"/>
-      <c r="U23" s="135"/>
-      <c r="V23" s="136"/>
+      <c r="T23" s="150"/>
+      <c r="U23" s="150"/>
+      <c r="V23" s="151"/>
     </row>
-    <row r="24" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N24" s="156"/>
       <c r="O24" s="72" t="s">
         <v>20</v>
@@ -13559,25 +13559,25 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="N25" s="78">
         <v>-1.6</v>
       </c>
       <c r="O25" s="79">
         <f t="shared" ref="O25:P38" si="9">I8</f>
-        <v>-4.2528594313220341E-2</v>
+        <v>-0.10632148578305088</v>
       </c>
       <c r="P25" s="80">
         <f t="shared" si="9"/>
-        <v>-8.5057188626440683E-2</v>
+        <v>-0.21264297156610176</v>
       </c>
       <c r="Q25" s="81">
         <f t="shared" ref="Q25:Q38" si="10">U8</f>
-        <v>5.3088236469064909E-2</v>
+        <v>-0.10957603969689145</v>
       </c>
       <c r="R25" s="77">
         <f>SUM(O25:Q25)</f>
-        <v>-7.4497546470596115E-2</v>
+        <v>-0.42854049704604408</v>
       </c>
       <c r="S25" s="80">
         <f t="shared" ref="S25:T38" si="11">M8</f>
@@ -13589,34 +13589,34 @@
       </c>
       <c r="U25" s="80">
         <f t="shared" ref="U25:U38" si="12">T8-U8</f>
-        <v>0.22905266390013362</v>
+        <v>-0.22905266390013246</v>
       </c>
       <c r="V25" s="77">
         <f>SUM(S25:U25)</f>
-        <v>1.0947716639001339</v>
+        <v>0.63666633609986789</v>
       </c>
       <c r="W25" s="82"/>
       <c r="X25" s="82"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="N26" s="78">
         <v>-1.4</v>
       </c>
       <c r="O26" s="83">
         <f t="shared" si="9"/>
-        <v>-4.2528594313220341E-2</v>
+        <v>-0.10632148578305088</v>
       </c>
       <c r="P26" s="84">
         <f t="shared" si="9"/>
-        <v>-8.5057188626440683E-2</v>
+        <v>-0.21264297156610176</v>
       </c>
       <c r="Q26" s="85">
         <f t="shared" si="10"/>
-        <v>4.7575667458590133E-2</v>
+        <v>-9.5794617170704505E-2</v>
       </c>
       <c r="R26" s="86">
         <f t="shared" ref="R26:R38" si="13">SUM(O26:Q26)</f>
-        <v>-8.0010115481070898E-2</v>
+        <v>-0.41475907451985716</v>
       </c>
       <c r="S26" s="84">
         <f t="shared" si="11"/>
@@ -13628,34 +13628,34 @@
       </c>
       <c r="U26" s="84">
         <f t="shared" si="12"/>
-        <v>0.18842028220232732</v>
+        <v>-0.1884202822023264</v>
       </c>
       <c r="V26" s="86">
         <f t="shared" ref="V26:V38" si="14">SUM(S26:U26)</f>
-        <v>0.97360728220232762</v>
+        <v>0.59676671779767387</v>
       </c>
       <c r="W26" s="23"/>
       <c r="X26" s="23"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="N27" s="78">
         <v>-1.2</v>
       </c>
       <c r="O27" s="83">
         <f t="shared" si="9"/>
-        <v>-4.2528594313220341E-2</v>
+        <v>-0.10632148578305088</v>
       </c>
       <c r="P27" s="84">
         <f t="shared" si="9"/>
-        <v>-8.5057188626440683E-2</v>
+        <v>-0.21264297156610176</v>
       </c>
       <c r="Q27" s="85">
         <f t="shared" si="10"/>
-        <v>4.2063098448115364E-2</v>
+        <v>-8.2013194644517562E-2</v>
       </c>
       <c r="R27" s="86">
         <f t="shared" si="13"/>
-        <v>-8.5522684491545653E-2</v>
+        <v>-0.40097765199367019</v>
       </c>
       <c r="S27" s="84">
         <f t="shared" si="11"/>
@@ -13667,34 +13667,34 @@
       </c>
       <c r="U27" s="84">
         <f t="shared" si="12"/>
-        <v>0.15175203530430703</v>
+        <v>-0.15175203530430628</v>
       </c>
       <c r="V27" s="86">
         <f t="shared" si="14"/>
-        <v>0.85640703530430728</v>
+        <v>0.552902964695694</v>
       </c>
       <c r="W27" s="23"/>
       <c r="X27" s="23"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="N28" s="78">
         <v>-1</v>
       </c>
       <c r="O28" s="83">
         <f t="shared" si="9"/>
-        <v>-4.2528594313220341E-2</v>
+        <v>-0.10632148578305088</v>
       </c>
       <c r="P28" s="84">
         <f t="shared" si="9"/>
-        <v>-8.5057188626440683E-2</v>
+        <v>-0.21264297156610176</v>
       </c>
       <c r="Q28" s="85">
         <f t="shared" si="10"/>
-        <v>3.6550529437640568E-2</v>
+        <v>-6.8231772118330564E-2</v>
       </c>
       <c r="R28" s="86">
         <f t="shared" si="13"/>
-        <v>-9.1035253502020463E-2</v>
+        <v>-0.38719622946748322</v>
       </c>
       <c r="S28" s="84">
         <f t="shared" si="11"/>
@@ -13706,34 +13706,34 @@
       </c>
       <c r="U28" s="84">
         <f t="shared" si="12"/>
-        <v>0.11904792320607258</v>
+        <v>-0.11904792320607199</v>
       </c>
       <c r="V28" s="86">
         <f t="shared" si="14"/>
-        <v>0.74317092320607259</v>
+        <v>0.50507507679392805</v>
       </c>
       <c r="W28" s="23"/>
       <c r="X28" s="23"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="N29" s="78">
         <v>-0.8</v>
       </c>
       <c r="O29" s="83">
         <f t="shared" si="9"/>
-        <v>-4.2528594313220341E-2</v>
+        <v>-0.10632148578305088</v>
       </c>
       <c r="P29" s="84">
         <f t="shared" si="9"/>
-        <v>-8.5057188626440683E-2</v>
+        <v>-0.21264297156610176</v>
       </c>
       <c r="Q29" s="85">
         <f t="shared" si="10"/>
-        <v>3.1037960427165792E-2</v>
+        <v>-5.4450349592143628E-2</v>
       </c>
       <c r="R29" s="86">
         <f t="shared" si="13"/>
-        <v>-9.6547822512495232E-2</v>
+        <v>-0.37341480694129625</v>
       </c>
       <c r="S29" s="84">
         <f t="shared" si="11"/>
@@ -13745,34 +13745,34 @@
       </c>
       <c r="U29" s="84">
         <f t="shared" si="12"/>
-        <v>9.030794590762424E-2</v>
+        <v>-9.030794590762381E-2</v>
       </c>
       <c r="V29" s="86">
         <f t="shared" si="14"/>
-        <v>0.63389894590762419</v>
+        <v>0.45328305409237613</v>
       </c>
       <c r="W29" s="23"/>
       <c r="X29" s="23"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="N30" s="78">
         <v>-0.6</v>
       </c>
       <c r="O30" s="83">
         <f t="shared" si="9"/>
-        <v>-4.2528594313220341E-2</v>
+        <v>-0.10632148578305088</v>
       </c>
       <c r="P30" s="84">
         <f t="shared" si="9"/>
-        <v>-8.5057188626440683E-2</v>
+        <v>-0.21264297156610176</v>
       </c>
       <c r="Q30" s="85">
         <f t="shared" si="10"/>
-        <v>2.5525391416691051E-2</v>
+        <v>-4.0668927065956782E-2</v>
       </c>
       <c r="R30" s="86">
         <f t="shared" si="13"/>
-        <v>-0.10206039152296997</v>
+        <v>-0.35963338441510939</v>
       </c>
       <c r="S30" s="84">
         <f t="shared" si="11"/>
@@ -13784,34 +13784,34 @@
       </c>
       <c r="U30" s="84">
         <f t="shared" si="12"/>
-        <v>6.5532103408962011E-2</v>
+        <v>-6.5532103408961678E-2</v>
       </c>
       <c r="V30" s="86">
         <f t="shared" si="14"/>
-        <v>0.52859110340896232</v>
+        <v>0.39752689659103868</v>
       </c>
       <c r="W30" s="23"/>
       <c r="X30" s="23"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="N31" s="78">
         <v>-0.4</v>
       </c>
       <c r="O31" s="83">
         <f t="shared" si="9"/>
-        <v>-4.2528594313220341E-2</v>
+        <v>-0.10632148578305088</v>
       </c>
       <c r="P31" s="84">
         <f t="shared" si="9"/>
-        <v>-8.5057188626440683E-2</v>
+        <v>-0.21264297156610176</v>
       </c>
       <c r="Q31" s="85">
         <f t="shared" si="10"/>
-        <v>2.0012822406216282E-2</v>
+        <v>-2.688750453976984E-2</v>
       </c>
       <c r="R31" s="86">
         <f t="shared" si="13"/>
-        <v>-0.10757296053344474</v>
+        <v>-0.34585196188892248</v>
       </c>
       <c r="S31" s="84">
         <f t="shared" si="11"/>
@@ -13823,34 +13823,34 @@
       </c>
       <c r="U31" s="84">
         <f t="shared" si="12"/>
-        <v>4.4720395710085611E-2</v>
+        <v>-4.4720395710085396E-2</v>
       </c>
       <c r="V31" s="86">
         <f t="shared" si="14"/>
-        <v>0.42724739571008596</v>
+        <v>0.33780660428991494</v>
       </c>
       <c r="W31" s="23"/>
       <c r="X31" s="23"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="N32" s="78">
         <v>-0.2</v>
       </c>
       <c r="O32" s="83">
         <f t="shared" si="9"/>
-        <v>-4.2528594313220341E-2</v>
+        <v>-0.10632148578305088</v>
       </c>
       <c r="P32" s="84">
         <f t="shared" si="9"/>
-        <v>-8.5057188626440683E-2</v>
+        <v>-0.21264297156610176</v>
       </c>
       <c r="Q32" s="85">
         <f t="shared" si="10"/>
-        <v>1.4500253395741512E-2</v>
+        <v>-1.3106082013582911E-2</v>
       </c>
       <c r="R32" s="86">
         <f t="shared" si="13"/>
-        <v>-0.11308552954391951</v>
+        <v>-0.33207053936273556</v>
       </c>
       <c r="S32" s="84">
         <f t="shared" si="11"/>
@@ -13862,34 +13862,34 @@
       </c>
       <c r="U32" s="84">
         <f t="shared" si="12"/>
-        <v>2.7872822810995193E-2</v>
+        <v>-2.7872822810995061E-2</v>
       </c>
       <c r="V32" s="86">
         <f t="shared" si="14"/>
-        <v>0.32986782281099547</v>
+        <v>0.27412217718900522</v>
       </c>
       <c r="W32" s="23"/>
       <c r="X32" s="23"/>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="N33" s="78">
         <v>0</v>
       </c>
       <c r="O33" s="83">
         <f t="shared" si="9"/>
-        <v>-4.2528594313220341E-2</v>
+        <v>-0.10632148578305088</v>
       </c>
       <c r="P33" s="84">
         <f t="shared" si="9"/>
-        <v>-8.5057188626440683E-2</v>
+        <v>-0.21264297156610176</v>
       </c>
       <c r="Q33" s="85">
         <f t="shared" si="10"/>
-        <v>8.9876843852667414E-3</v>
+        <v>6.7534051260401823E-4</v>
       </c>
       <c r="R33" s="86">
         <f t="shared" si="13"/>
-        <v>-0.11859809855439428</v>
+        <v>-0.31828911683654859</v>
       </c>
       <c r="S33" s="84">
         <f t="shared" si="11"/>
@@ -13901,34 +13901,34 @@
       </c>
       <c r="U33" s="84">
         <f t="shared" si="12"/>
-        <v>1.498938471169076E-2</v>
+        <v>-1.4989384711690689E-2</v>
       </c>
       <c r="V33" s="86">
         <f t="shared" si="14"/>
-        <v>0.23645238471169105</v>
+        <v>0.2064736152883096</v>
       </c>
       <c r="W33" s="23"/>
       <c r="X33" s="23"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="N34" s="78">
         <v>0.2</v>
       </c>
       <c r="O34" s="83">
         <f t="shared" si="9"/>
-        <v>-4.2528594313220341E-2</v>
+        <v>-0.10632148578305088</v>
       </c>
       <c r="P34" s="84">
         <f t="shared" si="9"/>
-        <v>-8.5057188626440683E-2</v>
+        <v>-0.21264297156610176</v>
       </c>
       <c r="Q34" s="85">
         <f t="shared" si="10"/>
-        <v>3.4751153747919691E-3</v>
+        <v>1.4456763038790954E-2</v>
       </c>
       <c r="R34" s="86">
         <f t="shared" si="13"/>
-        <v>-0.12411066756486905</v>
+        <v>-0.30450769431036168</v>
       </c>
       <c r="S34" s="84">
         <f t="shared" si="11"/>
@@ -13940,34 +13940,34 @@
       </c>
       <c r="U34" s="84">
         <f t="shared" si="12"/>
-        <v>6.0700814121723012E-3</v>
+        <v>-6.07008141217227E-3</v>
       </c>
       <c r="V34" s="86">
         <f t="shared" si="14"/>
-        <v>0.14700108141217258</v>
+        <v>0.134860918587828</v>
       </c>
       <c r="W34" s="23"/>
       <c r="X34" s="23"/>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
       <c r="N35" s="78">
         <v>0.4</v>
       </c>
       <c r="O35" s="83">
         <f t="shared" si="9"/>
-        <v>-4.2528594313220341E-2</v>
+        <v>-0.10632148578305088</v>
       </c>
       <c r="P35" s="84">
         <f t="shared" si="9"/>
-        <v>-8.5057188626440683E-2</v>
+        <v>-0.21264297156610176</v>
       </c>
       <c r="Q35" s="85">
         <f t="shared" si="10"/>
-        <v>-2.0374536356828014E-3</v>
+        <v>2.8238185564977883E-2</v>
       </c>
       <c r="R35" s="86">
         <f t="shared" si="13"/>
-        <v>-0.12962323657534383</v>
+        <v>-0.29072627178417476</v>
       </c>
       <c r="S35" s="84">
         <f t="shared" si="11"/>
@@ -13979,34 +13979,34 @@
       </c>
       <c r="U35" s="84">
         <f t="shared" si="12"/>
-        <v>1.1149129124398162E-3</v>
+        <v>-1.1149129124398104E-3</v>
       </c>
       <c r="V35" s="86">
         <f t="shared" si="14"/>
-        <v>6.1513912912440093E-2</v>
+        <v>5.9284087087560472E-2</v>
       </c>
       <c r="W35" s="23"/>
       <c r="X35" s="23"/>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
       <c r="N36" s="78">
         <v>0.6</v>
       </c>
       <c r="O36" s="83">
         <f t="shared" si="9"/>
-        <v>-4.2528594313220341E-2</v>
+        <v>-0.10632148578305088</v>
       </c>
       <c r="P36" s="84">
         <f t="shared" si="9"/>
-        <v>-8.5057188626440683E-2</v>
+        <v>-0.21264297156610176</v>
       </c>
       <c r="Q36" s="85">
         <f t="shared" si="10"/>
-        <v>-7.550022646157571E-3</v>
+        <v>4.2019608091164812E-2</v>
       </c>
       <c r="R36" s="86">
         <f t="shared" si="13"/>
-        <v>-0.13513580558581859</v>
+        <v>-0.27694484925798779</v>
       </c>
       <c r="S36" s="84">
         <f t="shared" si="11"/>
@@ -14018,34 +14018,34 @@
       </c>
       <c r="U36" s="84">
         <f t="shared" si="12"/>
-        <v>1.2387921249330802E-4</v>
+        <v>-1.2387921249330802E-4</v>
       </c>
       <c r="V36" s="86">
         <f t="shared" si="14"/>
-        <v>-2.0009120787506399E-2</v>
+        <v>-2.0256879212493015E-2</v>
       </c>
       <c r="W36" s="23"/>
       <c r="X36" s="23"/>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
       <c r="N37" s="78">
         <v>0.8</v>
       </c>
       <c r="O37" s="83">
         <f t="shared" si="9"/>
-        <v>-4.2528594313220341E-2</v>
+        <v>-0.10632148578305088</v>
       </c>
       <c r="P37" s="84">
         <f t="shared" si="9"/>
-        <v>-8.5057188626440683E-2</v>
+        <v>-0.21264297156610176</v>
       </c>
       <c r="Q37" s="85">
         <f t="shared" si="10"/>
-        <v>-1.3062591656632344E-2</v>
+        <v>5.5801030617351755E-2</v>
       </c>
       <c r="R37" s="86">
         <f t="shared" si="13"/>
-        <v>-0.14064837459629337</v>
+        <v>-0.26316342673180088</v>
       </c>
       <c r="S37" s="84">
         <f t="shared" si="11"/>
@@ -14057,34 +14057,34 @@
       </c>
       <c r="U37" s="84">
         <f t="shared" si="12"/>
-        <v>3.0969803123327769E-3</v>
+        <v>-3.096980312332763E-3</v>
       </c>
       <c r="V37" s="86">
         <f t="shared" si="14"/>
-        <v>-9.7568019687666957E-2</v>
+        <v>-0.1037619803123325</v>
       </c>
       <c r="W37" s="23"/>
       <c r="X37" s="23"/>
     </row>
-    <row r="38" spans="1:28" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N38" s="87">
         <v>1</v>
       </c>
       <c r="O38" s="88">
         <f t="shared" si="9"/>
-        <v>-4.2528594313220341E-2</v>
+        <v>-0.10632148578305088</v>
       </c>
       <c r="P38" s="89">
         <f t="shared" si="9"/>
-        <v>-8.5057188626440683E-2</v>
+        <v>-0.21264297156610176</v>
       </c>
       <c r="Q38" s="90">
         <f t="shared" si="10"/>
-        <v>-1.8575160667107113E-2</v>
+        <v>6.9582453143538683E-2</v>
       </c>
       <c r="R38" s="91">
         <f t="shared" si="13"/>
-        <v>-0.14616094360676812</v>
+        <v>-0.24938200420561396</v>
       </c>
       <c r="S38" s="89">
         <f t="shared" si="11"/>
@@ -14096,16 +14096,16 @@
       </c>
       <c r="U38" s="89">
         <f t="shared" si="12"/>
-        <v>1.003421621195822E-2</v>
+        <v>-1.0034216211958172E-2</v>
       </c>
       <c r="V38" s="91">
         <f t="shared" si="14"/>
-        <v>-0.17116278378804151</v>
+        <v>-0.19123121621195788</v>
       </c>
       <c r="W38" s="23"/>
       <c r="X38" s="23"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
       <c r="O39" s="82"/>
       <c r="P39" s="92"/>
       <c r="Q39" s="92"/>
@@ -14116,7 +14116,7 @@
       <c r="V39" s="23"/>
       <c r="W39" s="23"/>
     </row>
-    <row r="42" spans="1:28" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="93" t="s">
         <v>44</v>
       </c>
@@ -14130,7 +14130,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A43" s="25" t="s">
         <v>11</v>
       </c>
@@ -14156,7 +14156,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="33"/>
       <c r="B44" s="130">
         <v>0.3</v>
@@ -14180,7 +14180,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A45" s="126">
         <v>-1.6</v>
       </c>
@@ -14202,18 +14202,18 @@
       </c>
       <c r="F45" s="54">
         <f t="shared" ref="F45:H58" si="16">E45+R8</f>
-        <v>-0.72887004009481959</v>
+        <v>-0.79266293156465017</v>
       </c>
       <c r="G45" s="100">
         <f>F45+S8</f>
-        <v>-0.3810677287212601</v>
+        <v>-0.57244640313075179</v>
       </c>
       <c r="H45" s="101">
         <f>G45+T8</f>
-        <v>-9.8926828352061569E-2</v>
+        <v>-0.9110751067277757</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A46" s="127">
         <v>-1.4</v>
       </c>
@@ -14235,18 +14235,18 @@
       </c>
       <c r="F46" s="63">
         <f t="shared" si="16"/>
-        <v>-0.56913604009481944</v>
+        <v>-0.63292893156465002</v>
       </c>
       <c r="G46" s="102">
         <f t="shared" si="16"/>
-        <v>-0.26159972872125997</v>
+        <v>-0.45297840313075166</v>
       </c>
       <c r="H46" s="55">
         <f t="shared" si="16"/>
-        <v>-2.560377906034253E-2</v>
+        <v>-0.73719330250378257</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A47" s="127">
         <v>-1.2</v>
       </c>
@@ -14268,19 +14268,19 @@
       </c>
       <c r="F47" s="63">
         <f t="shared" si="16"/>
-        <v>-0.40940204009481951</v>
+        <v>-0.47319493156465009</v>
       </c>
       <c r="G47" s="102">
         <f t="shared" si="16"/>
-        <v>-0.14213172872126006</v>
+        <v>-0.33351040313075175</v>
       </c>
       <c r="H47" s="55">
         <f t="shared" si="16"/>
-        <v>5.1683405031162338E-2</v>
+        <v>-0.56727563307957563</v>
       </c>
       <c r="AB47" s="103"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A48" s="127">
         <v>-0.999999999999999</v>
       </c>
@@ -14302,18 +14302,18 @@
       </c>
       <c r="F48" s="63">
         <f t="shared" si="16"/>
-        <v>-0.2496680400948188</v>
+        <v>-0.31346093156464938</v>
       </c>
       <c r="G48" s="102">
         <f t="shared" si="16"/>
-        <v>-2.2663728721259491E-2</v>
+        <v>-0.21404240313075115</v>
       </c>
       <c r="H48" s="55">
         <f t="shared" si="16"/>
-        <v>0.13293472392245365</v>
+        <v>-0.40132209845515371</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="127">
         <v>-0.79999999999999905</v>
       </c>
@@ -14335,18 +14335,18 @@
       </c>
       <c r="F49" s="63">
         <f t="shared" si="16"/>
-        <v>-8.9934040094818674E-2</v>
+        <v>-0.15372693156464923</v>
       </c>
       <c r="G49" s="102">
         <f t="shared" si="16"/>
-        <v>9.6804271278740611E-2</v>
+        <v>-9.4574403130751022E-2</v>
       </c>
       <c r="H49" s="55">
         <f t="shared" si="16"/>
-        <v>0.21815017761353064</v>
+        <v>-0.23933269863051845</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="127">
         <v>-0.6</v>
       </c>
@@ -14368,18 +14368,18 @@
       </c>
       <c r="F50" s="63">
         <f t="shared" si="16"/>
-        <v>6.979995990518037E-2</v>
+        <v>6.007068435349816E-3</v>
       </c>
       <c r="G50" s="102">
         <f t="shared" si="16"/>
-        <v>0.21627227127873985</v>
+        <v>2.4893596869248219E-2</v>
       </c>
       <c r="H50" s="55">
         <f t="shared" si="16"/>
-        <v>0.30732976610439289</v>
+        <v>-8.1307433605670248E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="127">
         <v>-0.4</v>
       </c>
@@ -14401,18 +14401,18 @@
       </c>
       <c r="F51" s="63">
         <f t="shared" si="16"/>
-        <v>0.22953395990518044</v>
+        <v>0.16574106843534991</v>
       </c>
       <c r="G51" s="102">
         <f t="shared" si="16"/>
-        <v>0.33574027127873995</v>
+        <v>0.14436159686924832</v>
       </c>
       <c r="H51" s="55">
         <f t="shared" si="16"/>
-        <v>0.40047348939504185</v>
+        <v>7.2753696619393085E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="127">
         <v>-0.2</v>
       </c>
@@ -14434,18 +14434,18 @@
       </c>
       <c r="F52" s="63">
         <f t="shared" si="16"/>
-        <v>0.38926795990518048</v>
+        <v>0.32547506843534996</v>
       </c>
       <c r="G52" s="102">
         <f t="shared" si="16"/>
-        <v>0.45520827127873997</v>
+        <v>0.26382959686924834</v>
       </c>
       <c r="H52" s="55">
         <f t="shared" si="16"/>
-        <v>0.49758134748547667</v>
+        <v>0.22285069204467037</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="127">
         <v>0</v>
       </c>
@@ -14467,18 +14467,18 @@
       </c>
       <c r="F53" s="63">
         <f t="shared" si="16"/>
-        <v>0.54900195990518041</v>
+        <v>0.48520906843534989</v>
       </c>
       <c r="G53" s="102">
         <f t="shared" si="16"/>
-        <v>0.57467627127873988</v>
+        <v>0.38329759686924825</v>
       </c>
       <c r="H53" s="55">
         <f t="shared" si="16"/>
-        <v>0.5986533403756974</v>
+        <v>0.36898355267016159</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="127">
         <v>0.2</v>
       </c>
@@ -14500,18 +14500,18 @@
       </c>
       <c r="F54" s="63">
         <f t="shared" si="16"/>
-        <v>0.70873595990518035</v>
+        <v>0.64494306843534988</v>
       </c>
       <c r="G54" s="102">
         <f t="shared" si="16"/>
-        <v>0.69414427127873979</v>
+        <v>0.50276559686924827</v>
       </c>
       <c r="H54" s="55">
         <f t="shared" si="16"/>
-        <v>0.70368946806570409</v>
+        <v>0.51115227849586697</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="127">
         <v>0.4</v>
       </c>
@@ -14533,18 +14533,18 @@
       </c>
       <c r="F55" s="63">
         <f t="shared" si="16"/>
-        <v>0.8684699599051805</v>
+        <v>0.80467706843534992</v>
       </c>
       <c r="G55" s="102">
         <f t="shared" si="16"/>
-        <v>0.81361227127873992</v>
+        <v>0.62223359686924828</v>
       </c>
       <c r="H55" s="55">
         <f t="shared" si="16"/>
-        <v>0.81268973055549698</v>
+        <v>0.6493568695217864</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="127">
         <v>0.6</v>
       </c>
@@ -14566,18 +14566,18 @@
       </c>
       <c r="F56" s="63">
         <f t="shared" si="16"/>
-        <v>1.0282039599051804</v>
+        <v>0.96441106843534996</v>
       </c>
       <c r="G56" s="102">
         <f t="shared" si="16"/>
-        <v>0.93308027127873994</v>
+        <v>0.74170159686924841</v>
       </c>
       <c r="H56" s="55">
         <f>G56+T19</f>
-        <v>0.92565412784507572</v>
+        <v>0.78359732574791996</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="127">
         <v>0.8</v>
       </c>
@@ -14599,18 +14599,18 @@
       </c>
       <c r="F57" s="63">
         <f t="shared" si="16"/>
-        <v>1.1879379599051805</v>
+        <v>1.12414506843535</v>
       </c>
       <c r="G57" s="102">
         <f t="shared" si="16"/>
-        <v>1.05254827127874</v>
+        <v>0.86116959686924832</v>
       </c>
       <c r="H57" s="55">
         <f t="shared" si="16"/>
-        <v>1.0425826599344403</v>
+        <v>0.91387364717426733</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="128">
         <v>1</v>
       </c>
@@ -14632,44 +14632,44 @@
       </c>
       <c r="F58" s="24">
         <f t="shared" si="16"/>
-        <v>1.3476719599051805</v>
+        <v>1.2838790684353498</v>
       </c>
       <c r="G58" s="104">
         <f t="shared" si="16"/>
-        <v>1.1720162712787401</v>
+        <v>0.98063759686924823</v>
       </c>
       <c r="H58" s="64">
         <f t="shared" si="16"/>
-        <v>1.1634753268235911</v>
+        <v>1.0401858338008287</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="61" spans="1:15" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="131" t="s">
+    <row r="60" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="61" spans="1:15" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="132"/>
-      <c r="C61" s="132"/>
-      <c r="D61" s="133"/>
-      <c r="E61" s="131" t="s">
+      <c r="B61" s="147"/>
+      <c r="C61" s="147"/>
+      <c r="D61" s="148"/>
+      <c r="E61" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="F61" s="132"/>
-      <c r="G61" s="131" t="s">
+      <c r="F61" s="147"/>
+      <c r="G61" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="H61" s="132"/>
-      <c r="I61" s="131" t="s">
+      <c r="H61" s="147"/>
+      <c r="I61" s="146" t="s">
         <v>43</v>
       </c>
-      <c r="J61" s="132"/>
-      <c r="K61" s="133"/>
-      <c r="L61" s="131"/>
-      <c r="M61" s="132"/>
-      <c r="N61" s="133"/>
+      <c r="J61" s="147"/>
+      <c r="K61" s="148"/>
+      <c r="L61" s="146"/>
+      <c r="M61" s="147"/>
+      <c r="N61" s="148"/>
       <c r="O61" s="105"/>
     </row>
-    <row r="62" spans="1:15" ht="36.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:15" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="25" t="s">
         <v>47</v>
       </c>
@@ -14713,7 +14713,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>1</v>
       </c>
@@ -14746,30 +14746,30 @@
       </c>
       <c r="I63" s="57">
         <f t="shared" ref="I63:I70" si="23">+($D$6*$D$4^2-$B$6*$B$4^2)/(2*$C63^2*$B63^4)</f>
-        <v>-0.15429700983847253</v>
+        <v>0.15429700983847253</v>
       </c>
       <c r="J63" s="57">
         <f t="shared" ref="J63:J70" si="24">-($D$6*$D$4-$B$6*$B$4)/($C63*$B63^3)</f>
-        <v>-0.13781422526186929</v>
+        <v>0.13781422526186932</v>
       </c>
       <c r="K63" s="57">
         <f t="shared" ref="K63:K70" si="25">0.5*($D$6-$B$6)*(1/$B63)^2</f>
-        <v>4.9551684997324708E-2</v>
+        <v>-4.9551684997324465E-2</v>
       </c>
       <c r="L63" s="48">
         <f t="shared" ref="L63:L70" si="26">K63</f>
-        <v>4.9551684997324708E-2</v>
+        <v>-4.9551684997324465E-2</v>
       </c>
       <c r="M63" s="48">
         <f t="shared" ref="M63:M70" si="27">1+F63+H63+J63</f>
-        <v>0.45952577473813072</v>
+        <v>0.73515422526186924</v>
       </c>
       <c r="N63" s="48">
         <f>$D$19+E63+G63+I63</f>
-        <v>0.2385731296816235</v>
+        <v>0.54716714935856858</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>2</v>
       </c>
@@ -14802,30 +14802,30 @@
       </c>
       <c r="I64" s="57">
         <f t="shared" si="23"/>
-        <v>-3.8574252459618132E-2</v>
+        <v>3.8574252459618132E-2</v>
       </c>
       <c r="J64" s="57">
         <f t="shared" si="24"/>
-        <v>-6.8907112630934644E-2</v>
+        <v>6.8907112630934658E-2</v>
       </c>
       <c r="K64" s="57">
         <f t="shared" si="25"/>
-        <v>4.9551684997324708E-2</v>
+        <v>-4.9551684997324465E-2</v>
       </c>
       <c r="L64" s="57">
         <f t="shared" si="26"/>
-        <v>4.9551684997324708E-2</v>
+        <v>-4.9551684997324465E-2</v>
       </c>
       <c r="M64" s="57">
         <f t="shared" si="27"/>
-        <v>0.52843288736906535</v>
+        <v>0.66624711263093461</v>
       </c>
       <c r="N64" s="57">
         <f t="shared" ref="N64:N70" si="28">$D$19+E64+G64+I64</f>
-        <v>0.67326034440963056</v>
+        <v>0.75040884932886676</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>5</v>
       </c>
@@ -14858,30 +14858,30 @@
       </c>
       <c r="I65" s="57">
         <f t="shared" si="23"/>
-        <v>-6.1718803935388988E-3</v>
+        <v>6.1718803935388988E-3</v>
       </c>
       <c r="J65" s="57">
         <f t="shared" si="24"/>
-        <v>-2.7562845052373854E-2</v>
+        <v>2.7562845052373861E-2</v>
       </c>
       <c r="K65" s="57">
         <f t="shared" si="25"/>
-        <v>4.9551684997324708E-2</v>
+        <v>-4.9551684997324465E-2</v>
       </c>
       <c r="L65" s="57">
         <f t="shared" si="26"/>
-        <v>4.9551684997324708E-2</v>
+        <v>-4.9551684997324465E-2</v>
       </c>
       <c r="M65" s="57">
         <f t="shared" si="27"/>
-        <v>0.56977715494762615</v>
+        <v>0.62490284505237381</v>
       </c>
       <c r="N65" s="57">
         <f t="shared" si="28"/>
-        <v>0.89704139088520152</v>
+        <v>0.90938515167227929</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>78</v>
       </c>
@@ -14914,30 +14914,30 @@
       </c>
       <c r="I66" s="57">
         <f t="shared" si="23"/>
-        <v>-2.5361112728217043E-5</v>
+        <v>2.5361112728217043E-5</v>
       </c>
       <c r="J66" s="57">
         <f t="shared" si="24"/>
-        <v>-1.7668490418188368E-3</v>
+        <v>1.7668490418188373E-3</v>
       </c>
       <c r="K66" s="57">
         <f t="shared" si="25"/>
-        <v>4.9551684997324708E-2</v>
+        <v>-4.9551684997324465E-2</v>
       </c>
       <c r="L66" s="57">
         <f t="shared" si="26"/>
-        <v>4.9551684997324708E-2</v>
+        <v>-4.9551684997324465E-2</v>
       </c>
       <c r="M66" s="57">
         <f t="shared" si="27"/>
-        <v>0.5955731509581812</v>
+        <v>0.59910684904181877</v>
       </c>
       <c r="N66" s="57">
         <f t="shared" si="28"/>
-        <v>1.0225951172762078</v>
+        <v>1.022645839501664</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>1</v>
       </c>
@@ -14970,30 +14970,30 @@
       </c>
       <c r="I67" s="57">
         <f t="shared" si="23"/>
-        <v>-3.8574252459618132E-2</v>
+        <v>3.8574252459618132E-2</v>
       </c>
       <c r="J67" s="57">
         <f t="shared" si="24"/>
-        <v>-3.4453556315467322E-2</v>
+        <v>3.4453556315467329E-2</v>
       </c>
       <c r="K67" s="57">
         <f t="shared" si="25"/>
-        <v>1.2387921249331177E-2</v>
+        <v>-1.2387921249331116E-2</v>
       </c>
       <c r="L67" s="57">
         <f t="shared" si="26"/>
-        <v>1.2387921249331177E-2</v>
+        <v>-1.2387921249331116E-2</v>
       </c>
       <c r="M67" s="57">
         <f t="shared" si="27"/>
-        <v>0.76421644368453268</v>
+        <v>0.83312355631546731</v>
       </c>
       <c r="N67" s="57">
         <f t="shared" si="28"/>
-        <v>0.67326034440963056</v>
+        <v>0.75040884932886676</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>2</v>
       </c>
@@ -15026,30 +15026,30 @@
       </c>
       <c r="I68" s="57">
         <f t="shared" si="23"/>
-        <v>-9.6435631149045329E-3</v>
+        <v>9.6435631149045329E-3</v>
       </c>
       <c r="J68" s="57">
         <f t="shared" si="24"/>
-        <v>-1.7226778157733661E-2</v>
+        <v>1.7226778157733665E-2</v>
       </c>
       <c r="K68" s="57">
         <f t="shared" si="25"/>
-        <v>1.2387921249331177E-2</v>
+        <v>-1.2387921249331116E-2</v>
       </c>
       <c r="L68" s="57">
         <f t="shared" si="26"/>
-        <v>1.2387921249331177E-2</v>
+        <v>-1.2387921249331116E-2</v>
       </c>
       <c r="M68" s="57">
         <f t="shared" si="27"/>
-        <v>0.78144322184226633</v>
+        <v>0.81589677815773365</v>
       </c>
       <c r="N68" s="57">
         <f t="shared" si="28"/>
-        <v>0.86167326242892051</v>
+        <v>0.88096038865872961</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>5</v>
       </c>
@@ -15082,30 +15082,30 @@
       </c>
       <c r="I69" s="57">
         <f t="shared" si="23"/>
-        <v>-1.5429700983847247E-3</v>
+        <v>1.5429700983847247E-3</v>
       </c>
       <c r="J69" s="57">
         <f t="shared" si="24"/>
-        <v>-6.8907112630934636E-3</v>
+        <v>6.8907112630934653E-3</v>
       </c>
       <c r="K69" s="57">
         <f t="shared" si="25"/>
-        <v>1.2387921249331177E-2</v>
+        <v>-1.2387921249331116E-2</v>
       </c>
       <c r="L69" s="57">
         <f t="shared" si="26"/>
-        <v>1.2387921249331177E-2</v>
+        <v>-1.2387921249331116E-2</v>
       </c>
       <c r="M69" s="57">
         <f t="shared" si="27"/>
-        <v>0.79177928873690651</v>
+        <v>0.80556071126309348</v>
       </c>
       <c r="N69" s="57">
         <f t="shared" si="28"/>
-        <v>0.9654631926501861</v>
+        <v>0.96854913284695565</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>78</v>
       </c>
@@ -15138,30 +15138,30 @@
       </c>
       <c r="I70" s="57">
         <f t="shared" si="23"/>
-        <v>-6.3402781820542609E-6</v>
+        <v>6.3402781820542609E-6</v>
       </c>
       <c r="J70" s="57">
         <f t="shared" si="24"/>
-        <v>-4.4171226045470921E-4</v>
+        <v>4.4171226045470932E-4</v>
       </c>
       <c r="K70" s="57">
         <f t="shared" si="25"/>
-        <v>1.2387921249331177E-2</v>
+        <v>-1.2387921249331116E-2</v>
       </c>
       <c r="L70" s="57">
         <f t="shared" si="26"/>
-        <v>1.2387921249331177E-2</v>
+        <v>-1.2387921249331116E-2</v>
       </c>
       <c r="M70" s="57">
         <f t="shared" si="27"/>
-        <v>0.79822828773954524</v>
+        <v>0.79911171226045474</v>
       </c>
       <c r="N70" s="57">
         <f t="shared" si="28"/>
-        <v>1.0267034260254866</v>
+        <v>1.0267161065818506</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B71" s="108"/>
       <c r="C71" s="109"/>
       <c r="D71" s="110"/>
@@ -15178,7 +15178,7 @@
       <c r="O71" s="108"/>
       <c r="P71" s="108"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B72" s="108"/>
       <c r="C72" s="108"/>
       <c r="D72" s="108"/>
@@ -15195,7 +15195,7 @@
       <c r="O72" s="108"/>
       <c r="P72" s="108"/>
     </row>
-    <row r="73" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B73" s="108"/>
       <c r="C73" s="108"/>
       <c r="D73" s="108"/>
@@ -15212,7 +15212,7 @@
       <c r="O73" s="108"/>
       <c r="P73" s="108"/>
     </row>
-    <row r="74" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="106" t="s">
         <v>5</v>
       </c>
@@ -15272,7 +15272,7 @@
         <v>0.99999999999999978</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="106" t="s">
         <v>29</v>
       </c>
@@ -15333,7 +15333,7 @@
         <v>0.44999999999999907</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="106" t="s">
         <v>55</v>
       </c>
@@ -15394,495 +15394,495 @@
         <v>1.4807990542184004</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="106" t="s">
         <v>59</v>
       </c>
       <c r="B77" s="57">
         <f t="shared" ref="B77:O77" si="32">$L63*B$75^2+$M63*B$75+$N63</f>
-        <v>-0.52035462210522432</v>
+        <v>-1.2624670988545834</v>
       </c>
       <c r="C77" s="57">
         <f t="shared" si="32"/>
-        <v>-0.46908184885540438</v>
+        <v>-1.0748038721044035</v>
       </c>
       <c r="D77" s="57">
         <f t="shared" si="32"/>
-        <v>-0.4138449408057987</v>
+        <v>-0.89110478015400951</v>
       </c>
       <c r="E77" s="57">
         <f t="shared" si="32"/>
-        <v>-0.35464389795640683</v>
+        <v>-0.71136982300340157</v>
       </c>
       <c r="F77" s="57">
         <f t="shared" si="32"/>
-        <v>-0.2914787203072291</v>
+        <v>-0.53559900065257948</v>
       </c>
       <c r="G77" s="57">
         <f t="shared" si="32"/>
-        <v>-0.22434940785826521</v>
+        <v>-0.36379231310154359</v>
       </c>
       <c r="H77" s="57">
         <f t="shared" si="32"/>
-        <v>-0.15325596060951549</v>
+        <v>-0.19594976035029343</v>
       </c>
       <c r="I77" s="57">
         <f t="shared" si="32"/>
-        <v>-7.8198378560979748E-2</v>
+        <v>-3.207134239882925E-2</v>
       </c>
       <c r="J77" s="57">
         <f t="shared" si="32"/>
-        <v>8.2333828734193482E-4</v>
+        <v>0.12784294075284913</v>
       </c>
       <c r="K77" s="57">
         <f t="shared" si="32"/>
-        <v>8.3809189935449613E-2</v>
+        <v>0.28379308910474133</v>
       </c>
       <c r="L77" s="57">
         <f t="shared" si="32"/>
-        <v>0.17075917638334326</v>
+        <v>0.43577910265684766</v>
       </c>
       <c r="M77" s="57">
         <f t="shared" si="32"/>
-        <v>0.26167329763102293</v>
+        <v>0.58380098140916803</v>
       </c>
       <c r="N77" s="57">
         <f t="shared" si="32"/>
-        <v>0.35655155367848856</v>
+        <v>0.72785872536170249</v>
       </c>
       <c r="O77" s="57">
         <f t="shared" si="32"/>
-        <v>0.45539394452574011</v>
+        <v>0.86795233451445086</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="106" t="s">
         <v>60</v>
       </c>
       <c r="B78" s="57">
         <f t="shared" ref="B78:O78" si="33">$L64*B$75^2+$M64*B$75+$N64</f>
-        <v>-0.23381769953372689</v>
+        <v>-0.91107510672777559</v>
       </c>
       <c r="C78" s="57">
         <f t="shared" si="33"/>
-        <v>-0.16876350375771998</v>
+        <v>-0.73719330250378268</v>
       </c>
       <c r="D78" s="57">
         <f t="shared" si="33"/>
-        <v>-9.9745173181927216E-2</v>
+        <v>-0.56727563307957563</v>
       </c>
       <c r="E78" s="57">
         <f t="shared" si="33"/>
-        <v>-2.6762707806348485E-2</v>
+        <v>-0.40132209845515465</v>
       </c>
       <c r="F78" s="57">
         <f t="shared" si="33"/>
-        <v>5.0183892369016214E-2</v>
+        <v>-0.23933269863051954</v>
       </c>
       <c r="G78" s="57">
         <f t="shared" si="33"/>
-        <v>0.13109462734416699</v>
+        <v>-8.1307433605670498E-2</v>
       </c>
       <c r="H78" s="57">
         <f t="shared" si="33"/>
-        <v>0.21596949711910363</v>
+        <v>7.2753696619392683E-2</v>
       </c>
       <c r="I78" s="57">
         <f t="shared" si="33"/>
-        <v>0.30480850169382623</v>
+        <v>0.22285069204467001</v>
       </c>
       <c r="J78" s="57">
         <f t="shared" si="33"/>
-        <v>0.39761164106833491</v>
+        <v>0.36898355267016142</v>
       </c>
       <c r="K78" s="57">
         <f t="shared" si="33"/>
-        <v>0.49437891524262945</v>
+        <v>0.51115227849586675</v>
       </c>
       <c r="L78" s="57">
         <f t="shared" si="33"/>
-        <v>0.59511032421671006</v>
+        <v>0.64935686952178606</v>
       </c>
       <c r="M78" s="57">
         <f t="shared" si="33"/>
-        <v>0.69980586799057665</v>
+        <v>0.78359732574791952</v>
       </c>
       <c r="N78" s="57">
         <f t="shared" si="33"/>
-        <v>0.8084655465642292</v>
+        <v>0.913873647174267</v>
       </c>
       <c r="O78" s="57">
         <f t="shared" si="33"/>
-        <v>0.92108935993766772</v>
+        <v>1.0401858338008285</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="106" t="s">
         <v>61</v>
       </c>
       <c r="B79" s="57">
         <f t="shared" ref="B79:O79" si="34">$L65*B$75^2+$M65*B$75+$N65</f>
-        <v>-9.892682835206168E-2</v>
+        <v>-0.6632086290904573</v>
       </c>
       <c r="C79" s="57">
         <f t="shared" si="34"/>
-        <v>-2.5603779060342724E-2</v>
+        <v>-0.49759567838217666</v>
       </c>
       <c r="D79" s="57">
         <f t="shared" si="34"/>
-        <v>5.1683405031162311E-2</v>
+        <v>-0.33594686247368166</v>
       </c>
       <c r="E79" s="57">
         <f t="shared" si="34"/>
-        <v>0.1329347239224532</v>
+        <v>-0.17826218136497296</v>
       </c>
       <c r="F79" s="57">
         <f t="shared" si="34"/>
-        <v>0.21815017761353006</v>
+        <v>-2.4541635056049893E-2</v>
       </c>
       <c r="G79" s="57">
         <f t="shared" si="34"/>
-        <v>0.307329766104393</v>
+        <v>0.12521477645308698</v>
       </c>
       <c r="H79" s="57">
         <f t="shared" si="34"/>
-        <v>0.40047348939504179</v>
+        <v>0.27100705316243801</v>
       </c>
       <c r="I79" s="57">
         <f t="shared" si="34"/>
-        <v>0.49758134748547656</v>
+        <v>0.41283519507200322</v>
       </c>
       <c r="J79" s="57">
         <f t="shared" si="34"/>
-        <v>0.59865334037569728</v>
+        <v>0.55069920218178248</v>
       </c>
       <c r="K79" s="57">
         <f t="shared" si="34"/>
-        <v>0.70368946806570409</v>
+        <v>0.68459907449177559</v>
       </c>
       <c r="L79" s="57">
         <f t="shared" si="34"/>
-        <v>0.81268973055549687</v>
+        <v>0.81453481200198286</v>
       </c>
       <c r="M79" s="57">
         <f t="shared" si="34"/>
-        <v>0.92565412784507561</v>
+        <v>0.94050641471240404</v>
       </c>
       <c r="N79" s="57">
         <f t="shared" si="34"/>
-        <v>1.0425826599344403</v>
+        <v>1.0625138826230394</v>
       </c>
       <c r="O79" s="57">
         <f t="shared" si="34"/>
-        <v>1.1634753268235909</v>
+        <v>1.1805572157338888</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="106" t="s">
         <v>62</v>
       </c>
       <c r="B80" s="57">
         <f t="shared" ref="B80:O80" si="35">$L66*B$75^2+$M66*B$75+$N66</f>
-        <v>-2.8834493383748772E-2</v>
+        <v>-0.49448654983837925</v>
       </c>
       <c r="C80" s="57">
         <f t="shared" si="35"/>
-        <v>4.9647755110081349E-2</v>
+        <v>-0.33403279833220956</v>
       </c>
       <c r="D80" s="57">
         <f t="shared" si="35"/>
-        <v>0.13209413840369721</v>
+        <v>-0.17754318162582572</v>
       </c>
       <c r="E80" s="57">
         <f t="shared" si="35"/>
-        <v>0.21850465649709905</v>
+        <v>-2.5017699719227959E-2</v>
       </c>
       <c r="F80" s="57">
         <f t="shared" si="35"/>
-        <v>0.30887930939028696</v>
+        <v>0.12354364738758417</v>
       </c>
       <c r="G80" s="57">
         <f t="shared" si="35"/>
-        <v>0.40321809708326084</v>
+        <v>0.26814085969460999</v>
       </c>
       <c r="H80" s="57">
         <f t="shared" si="35"/>
-        <v>0.50152101957602069</v>
+        <v>0.40877393720185007</v>
       </c>
       <c r="I80" s="57">
         <f t="shared" si="35"/>
-        <v>0.6037880768685665</v>
+        <v>0.54544287990930429</v>
       </c>
       <c r="J80" s="57">
         <f t="shared" si="35"/>
-        <v>0.7100192689608984</v>
+        <v>0.67814768781697243</v>
       </c>
       <c r="K80" s="57">
         <f t="shared" si="35"/>
-        <v>0.82021459585301604</v>
+        <v>0.8068883609248545</v>
       </c>
       <c r="L80" s="57">
         <f t="shared" si="35"/>
-        <v>0.93437405754491987</v>
+        <v>0.93166489923295082</v>
       </c>
       <c r="M80" s="57">
         <f t="shared" si="35"/>
-        <v>1.0524976540366096</v>
+        <v>1.0524773027412611</v>
       </c>
       <c r="N80" s="57">
         <f t="shared" si="35"/>
-        <v>1.1745853853280854</v>
+        <v>1.1693255714497854</v>
       </c>
       <c r="O80" s="57">
         <f t="shared" si="35"/>
-        <v>1.3006372514193469</v>
+        <v>1.2822097053585237</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="106" t="s">
         <v>63</v>
       </c>
       <c r="B81" s="57">
         <f t="shared" ref="B81:O81" si="36">$L67*B$75^2+$M67*B$75+$N67</f>
-        <v>-0.91254184353708201</v>
+        <v>-1.0980699627244217</v>
       </c>
       <c r="C81" s="57">
         <f t="shared" si="36"/>
-        <v>-0.76985665022462713</v>
+        <v>-0.92128715603687672</v>
       </c>
       <c r="D81" s="57">
         <f t="shared" si="36"/>
-        <v>-0.62618042321222545</v>
+        <v>-0.74549538304927832</v>
       </c>
       <c r="E81" s="57">
         <f t="shared" si="36"/>
-        <v>-0.48151316249987763</v>
+        <v>-0.57069464376162649</v>
       </c>
       <c r="F81" s="57">
         <f t="shared" si="36"/>
-        <v>-0.33585486808758325</v>
+        <v>-0.39688493817392101</v>
       </c>
       <c r="G81" s="57">
         <f t="shared" si="36"/>
-        <v>-0.18920553997534229</v>
+        <v>-0.22406626628616189</v>
       </c>
       <c r="H81" s="57">
         <f t="shared" si="36"/>
-        <v>-4.156517816315497E-2</v>
+        <v>-5.2238628098349449E-2</v>
       </c>
       <c r="I81" s="57">
         <f t="shared" si="36"/>
-        <v>0.10706621734897914</v>
+        <v>0.11859797638951664</v>
       </c>
       <c r="J81" s="57">
         <f t="shared" si="36"/>
-        <v>0.25668864656105961</v>
+        <v>0.28844354717743631</v>
       </c>
       <c r="K81" s="57">
         <f t="shared" si="36"/>
-        <v>0.40730210947308648</v>
+        <v>0.4572980842654093</v>
       </c>
       <c r="L81" s="57">
         <f t="shared" si="36"/>
-        <v>0.55890660608505982</v>
+        <v>0.62516158765343588</v>
       </c>
       <c r="M81" s="57">
         <f t="shared" si="36"/>
-        <v>0.71150213639697979</v>
+        <v>0.792034057341516</v>
       </c>
       <c r="N81" s="57">
         <f t="shared" si="36"/>
-        <v>0.86508870040884622</v>
+        <v>0.95791549332964965</v>
       </c>
       <c r="O81" s="57">
         <f t="shared" si="36"/>
-        <v>1.0196662981206592</v>
+        <v>1.1228058956178368</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="106" t="s">
         <v>64</v>
       </c>
       <c r="B82" s="57">
         <f t="shared" ref="B82:O82" si="37">$L68*B$75^2+$M68*B$75+$N68</f>
-        <v>-0.76116649855691931</v>
+        <v>-0.9304808503554316</v>
       </c>
       <c r="C82" s="57">
         <f t="shared" si="37"/>
-        <v>-0.61503594961291763</v>
+        <v>-0.7571433992994332</v>
       </c>
       <c r="D82" s="57">
         <f t="shared" si="37"/>
-        <v>-0.4679143669689696</v>
+        <v>-0.58479698194338159</v>
       </c>
       <c r="E82" s="57">
         <f t="shared" si="37"/>
-        <v>-0.31980175062507499</v>
+        <v>-0.41344159828727656</v>
       </c>
       <c r="F82" s="57">
         <f t="shared" si="37"/>
-        <v>-0.1706981005812338</v>
+        <v>-0.24307724833111766</v>
       </c>
       <c r="G82" s="57">
         <f t="shared" si="37"/>
-        <v>-2.0603416837446042E-2</v>
+        <v>-7.3703932074905332E-2</v>
       </c>
       <c r="H82" s="57">
         <f t="shared" si="37"/>
-        <v>0.13048230060628807</v>
+        <v>9.4678350481360418E-2</v>
       </c>
       <c r="I82" s="57">
         <f t="shared" si="37"/>
-        <v>0.28255905174996876</v>
+        <v>0.2620695993376797</v>
       </c>
       <c r="J82" s="57">
         <f t="shared" si="37"/>
-        <v>0.43562683659359602</v>
+        <v>0.42846981449405269</v>
       </c>
       <c r="K82" s="57">
         <f t="shared" si="37"/>
-        <v>0.58968565513716964</v>
+        <v>0.59387899595047888</v>
       </c>
       <c r="L82" s="57">
         <f t="shared" si="37"/>
-        <v>0.74473550738068972</v>
+        <v>0.75829714370695878</v>
       </c>
       <c r="M82" s="57">
         <f t="shared" si="37"/>
-        <v>0.90077639332415638</v>
+        <v>0.92172425776349221</v>
       </c>
       <c r="N82" s="57">
         <f t="shared" si="37"/>
-        <v>1.0578083129675695</v>
+        <v>1.0841603381200791</v>
       </c>
       <c r="O82" s="57">
         <f t="shared" si="37"/>
-        <v>1.2158312663109292</v>
+        <v>1.2456053847767194</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="106" t="s">
         <v>65</v>
       </c>
       <c r="B83" s="57">
         <f t="shared" ref="B83:O83" si="38">$L69*B$75^2+$M69*B$75+$N69</f>
-        <v>-0.67959911215913016</v>
+        <v>-0.82066956234372912</v>
       </c>
       <c r="C83" s="57">
         <f t="shared" si="38"/>
-        <v>-0.53140134983620058</v>
+        <v>-0.64939932466665884</v>
       </c>
       <c r="D83" s="57">
         <f t="shared" si="38"/>
-        <v>-0.3822125538133242</v>
+        <v>-0.47912012068953513</v>
       </c>
       <c r="E83" s="57">
         <f t="shared" si="38"/>
-        <v>-0.23203272409050169</v>
+        <v>-0.30983195041235823</v>
       </c>
       <c r="F83" s="57">
         <f t="shared" si="38"/>
-        <v>-8.0861860667732377E-2</v>
+        <v>-0.14153481383512745</v>
       </c>
       <c r="G83" s="57">
         <f t="shared" si="38"/>
-        <v>7.1300036454983284E-2</v>
+        <v>2.5771289042156975E-2</v>
       </c>
       <c r="H83" s="57">
         <f t="shared" si="38"/>
-        <v>0.22445296727764541</v>
+        <v>0.1920863582194946</v>
       </c>
       <c r="I83" s="57">
         <f t="shared" si="38"/>
-        <v>0.37859693180025422</v>
+        <v>0.35741039369688599</v>
       </c>
       <c r="J83" s="57">
         <f t="shared" si="38"/>
-        <v>0.5337319300228095</v>
+        <v>0.52174339547433091</v>
       </c>
       <c r="K83" s="57">
         <f t="shared" si="38"/>
-        <v>0.68985796194531113</v>
+        <v>0.68508536355182903</v>
       </c>
       <c r="L83" s="57">
         <f t="shared" si="38"/>
-        <v>0.84697502756775933</v>
+        <v>0.84743629792938091</v>
       </c>
       <c r="M83" s="57">
         <f t="shared" si="38"/>
-        <v>1.0050831268901539</v>
+        <v>1.0087961986069862</v>
       </c>
       <c r="N83" s="57">
         <f t="shared" si="38"/>
-        <v>1.1641822599124951</v>
+        <v>1.1691650655846451</v>
       </c>
       <c r="O83" s="57">
         <f t="shared" si="38"/>
-        <v>1.3242724266347827</v>
+        <v>1.3285428988623575</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="106" t="s">
         <v>66</v>
       </c>
       <c r="B84" s="57">
         <f t="shared" ref="B84:O84" si="39">$L70*B$75^2+$M70*B$75+$N70</f>
-        <v>-0.63222422663950306</v>
+        <v>-0.74863724075316074</v>
       </c>
       <c r="C84" s="57">
         <f t="shared" si="39"/>
-        <v>-0.48273666451604558</v>
+        <v>-0.57865680287661836</v>
       </c>
       <c r="D84" s="57">
         <f t="shared" si="39"/>
-        <v>-0.33225806869264152</v>
+        <v>-0.40966739870002233</v>
       </c>
       <c r="E84" s="57">
         <f t="shared" si="39"/>
-        <v>-0.1807884391692911</v>
+        <v>-0.24166902822337311</v>
       </c>
       <c r="F84" s="57">
         <f t="shared" si="39"/>
-        <v>-2.8327775945994116E-2</v>
+        <v>-7.4661691446670231E-2</v>
       </c>
       <c r="G84" s="57">
         <f t="shared" si="39"/>
-        <v>0.12512392097724923</v>
+        <v>9.1354611630086513E-2</v>
       </c>
       <c r="H84" s="57">
         <f t="shared" si="39"/>
-        <v>0.27956665160043914</v>
+        <v>0.25637988100689646</v>
       </c>
       <c r="I84" s="57">
         <f t="shared" si="39"/>
-        <v>0.43500041592357563</v>
+        <v>0.42041411668375994</v>
       </c>
       <c r="J84" s="57">
         <f t="shared" si="39"/>
-        <v>0.5914252139466587</v>
+        <v>0.58345731866067707</v>
       </c>
       <c r="K84" s="57">
         <f t="shared" si="39"/>
-        <v>0.74884104566968812</v>
+        <v>0.74550948693764763</v>
       </c>
       <c r="L84" s="57">
         <f t="shared" si="39"/>
-        <v>0.90724791109266401</v>
+        <v>0.90657062151467172</v>
       </c>
       <c r="M84" s="57">
         <f t="shared" si="39"/>
-        <v>1.0666458102155865</v>
+        <v>1.0666407223917493</v>
       </c>
       <c r="N84" s="57">
         <f t="shared" si="39"/>
-        <v>1.2270347430384554</v>
+        <v>1.2257197895688805</v>
       </c>
       <c r="O84" s="57">
         <f t="shared" si="39"/>
-        <v>1.3884147095612707</v>
+        <v>1.3838078230460651</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B85" s="108"/>
       <c r="C85" s="108"/>
       <c r="D85" s="108"/>
@@ -15899,7 +15899,7 @@
       <c r="O85" s="108"/>
       <c r="P85" s="108"/>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B86" s="108"/>
       <c r="C86" s="108"/>
       <c r="D86" s="108"/>
@@ -15916,7 +15916,7 @@
       <c r="O86" s="108"/>
       <c r="P86" s="108"/>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" s="111"/>
       <c r="B87" s="111"/>
       <c r="C87" s="111"/>
@@ -15934,7 +15934,7 @@
       <c r="O87" s="108"/>
       <c r="P87" s="108"/>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="111"/>
       <c r="B88" s="111"/>
       <c r="C88" s="92"/>
@@ -15952,7 +15952,7 @@
       <c r="O88" s="112"/>
       <c r="P88" s="112"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" s="111"/>
       <c r="B89" s="111"/>
       <c r="C89" s="92"/>
@@ -15970,7 +15970,7 @@
       <c r="O89" s="112"/>
       <c r="P89" s="112"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" s="111"/>
       <c r="B90" s="111"/>
       <c r="C90" s="92"/>
@@ -15988,7 +15988,7 @@
       <c r="O90" s="112"/>
       <c r="P90" s="112"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" s="111"/>
       <c r="B91" s="111"/>
       <c r="C91" s="92"/>
@@ -16001,7 +16001,7 @@
       <c r="J91" s="92"/>
       <c r="K91" s="92"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="111"/>
       <c r="B92" s="111"/>
       <c r="C92" s="92"/>
@@ -16014,7 +16014,7 @@
       <c r="J92" s="92"/>
       <c r="K92" s="92"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" s="111"/>
       <c r="B93" s="111"/>
       <c r="C93" s="92"/>
@@ -16027,7 +16027,7 @@
       <c r="J93" s="92"/>
       <c r="K93" s="92"/>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" s="111"/>
       <c r="B94" s="111"/>
       <c r="C94" s="92"/>
@@ -16040,7 +16040,7 @@
       <c r="J94" s="92"/>
       <c r="K94" s="92"/>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" s="111"/>
       <c r="B95" s="111"/>
       <c r="C95" s="92"/>
@@ -16053,7 +16053,7 @@
       <c r="J95" s="92"/>
       <c r="K95" s="92"/>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" s="111"/>
       <c r="B96" s="111"/>
       <c r="C96" s="92"/>
@@ -16066,7 +16066,7 @@
       <c r="J96" s="92"/>
       <c r="K96" s="92"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="111"/>
       <c r="B97" s="111"/>
       <c r="C97" s="92"/>
@@ -16079,7 +16079,7 @@
       <c r="J97" s="92"/>
       <c r="K97" s="92"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="111"/>
       <c r="B98" s="111"/>
       <c r="C98" s="92"/>
@@ -16092,7 +16092,7 @@
       <c r="J98" s="92"/>
       <c r="K98" s="92"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="111"/>
       <c r="B99" s="111"/>
       <c r="C99" s="92"/>
@@ -16105,7 +16105,7 @@
       <c r="J99" s="92"/>
       <c r="K99" s="92"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="111"/>
       <c r="B100" s="111"/>
       <c r="C100" s="92"/>
@@ -16118,7 +16118,7 @@
       <c r="J100" s="92"/>
       <c r="K100" s="92"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="111"/>
       <c r="B101" s="111"/>
       <c r="C101" s="92"/>
@@ -16133,18 +16133,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
     <mergeCell ref="G61:H61"/>
     <mergeCell ref="I61:K61"/>
     <mergeCell ref="L61:N61"/>
@@ -16159,6 +16147,18 @@
     <mergeCell ref="N23:N24"/>
     <mergeCell ref="O23:R23"/>
     <mergeCell ref="E61:F61"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
